--- a/processed_data/gas_elec.xlsx
+++ b/processed_data/gas_elec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\globus\Team-Big-Duck-Energy-SMCDC-2020-Impacts-of-Urban-Weather-on-Building-Energy-Use\processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359C455D-666D-4AEC-853A-D32A01A3B67A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7C3B58-CD62-48AF-9B23-E44A90312E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>BLDGID</t>
   </si>
@@ -28,10 +28,22 @@
     <t>Area [m2]</t>
   </si>
   <si>
-    <t>Total Annual Electricity [GJ]</t>
+    <t>Mean Average Height [m]</t>
   </si>
   <si>
-    <t>Total Annual Gas [GJ]</t>
+    <t>Total Electricity [GJ]</t>
+  </si>
+  <si>
+    <t>Total Gas [GJ]</t>
+  </si>
+  <si>
+    <t>Heating Gas [GJ]</t>
+  </si>
+  <si>
+    <t>Cooling Electricity [GJ</t>
+  </si>
+  <si>
+    <t>Heating Electricity [GJ]</t>
   </si>
 </sst>
 </file>
@@ -394,18 +406,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D319"/>
+  <dimension ref="A1:H319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.6328125" customWidth="1"/>
+    <col min="1" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +430,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -427,13 +451,25 @@
         <v>285.41000000000003</v>
       </c>
       <c r="C2">
+        <v>1.74</v>
+      </c>
+      <c r="D2">
         <v>259.35000000000002</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>45.13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G2">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H2">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -441,13 +477,25 @@
         <v>313.14</v>
       </c>
       <c r="C3">
+        <v>2.17</v>
+      </c>
+      <c r="D3">
         <v>295.27999999999997</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>43.49</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>104.53</v>
+      </c>
+      <c r="G3">
+        <v>3.22</v>
+      </c>
+      <c r="H3">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -455,13 +503,25 @@
         <v>251.16</v>
       </c>
       <c r="C4">
+        <v>2.97</v>
+      </c>
+      <c r="D4">
         <v>303.2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>41.07</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>122.96</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -469,13 +529,25 @@
         <v>288.20999999999998</v>
       </c>
       <c r="C5">
+        <v>3.03</v>
+      </c>
+      <c r="D5">
         <v>330.35</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>41.22</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>139.65</v>
+      </c>
+      <c r="G5">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="H5">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -483,13 +555,25 @@
         <v>282.49</v>
       </c>
       <c r="C6">
+        <v>3.73</v>
+      </c>
+      <c r="D6">
         <v>354.79</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>40.520000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>167.71</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+      <c r="H6">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -497,13 +581,25 @@
         <v>754.84</v>
       </c>
       <c r="C7">
+        <v>8.94</v>
+      </c>
+      <c r="D7">
         <v>597.03</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>45.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>282.08</v>
+      </c>
+      <c r="G7">
+        <v>5.72</v>
+      </c>
+      <c r="H7">
+        <v>35.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>12</v>
       </c>
@@ -511,13 +607,25 @@
         <v>754.84</v>
       </c>
       <c r="C8">
+        <v>8.66</v>
+      </c>
+      <c r="D8">
         <v>585.84</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>46.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>272.35000000000002</v>
+      </c>
+      <c r="G8">
+        <v>6.33</v>
+      </c>
+      <c r="H8">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>14</v>
       </c>
@@ -525,13 +633,25 @@
         <v>5975.49</v>
       </c>
       <c r="C9">
+        <v>17.77</v>
+      </c>
+      <c r="D9">
         <v>2527.46</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>294.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>955.43</v>
+      </c>
+      <c r="G9">
+        <v>226.34</v>
+      </c>
+      <c r="H9">
+        <v>124.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -539,13 +659,25 @@
         <v>5323.7</v>
       </c>
       <c r="C10">
+        <v>8.31</v>
+      </c>
+      <c r="D10">
         <v>1996.38</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>323.27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>609.46</v>
+      </c>
+      <c r="G10">
+        <v>261</v>
+      </c>
+      <c r="H10">
+        <v>97.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>17</v>
       </c>
@@ -553,13 +685,25 @@
         <v>754.85</v>
       </c>
       <c r="C11">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="D11">
         <v>600.73</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>45.81</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>285.29000000000002</v>
+      </c>
+      <c r="G11">
+        <v>5.54</v>
+      </c>
+      <c r="H11">
+        <v>36.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>18</v>
       </c>
@@ -567,13 +711,25 @@
         <v>754.85</v>
       </c>
       <c r="C12">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="D12">
         <v>588.20000000000005</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>46.46</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>274.39</v>
+      </c>
+      <c r="G12">
+        <v>6.2</v>
+      </c>
+      <c r="H12">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>19</v>
       </c>
@@ -581,13 +737,25 @@
         <v>7470.48</v>
       </c>
       <c r="C13">
+        <v>12.03</v>
+      </c>
+      <c r="D13">
         <v>3634.73</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>246.43</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>1600.08</v>
+      </c>
+      <c r="G13">
+        <v>165.92</v>
+      </c>
+      <c r="H13">
+        <v>217.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -595,13 +763,25 @@
         <v>57765.85</v>
       </c>
       <c r="C14">
+        <v>92.27</v>
+      </c>
+      <c r="D14">
         <v>17173.97</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>15007.93</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>14920.54</v>
+      </c>
+      <c r="H14">
+        <v>651.91999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>21</v>
       </c>
@@ -609,13 +789,25 @@
         <v>754.83</v>
       </c>
       <c r="C15">
+        <v>9.1</v>
+      </c>
+      <c r="D15">
         <v>603.45000000000005</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>45.66</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>287.66000000000003</v>
+      </c>
+      <c r="G15">
+        <v>5.39</v>
+      </c>
+      <c r="H15">
+        <v>36.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -623,13 +815,25 @@
         <v>754.84</v>
       </c>
       <c r="C16">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="D16">
         <v>588.20000000000005</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>46.46</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>274.39</v>
+      </c>
+      <c r="G16">
+        <v>6.19</v>
+      </c>
+      <c r="H16">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -637,13 +841,25 @@
         <v>277.11</v>
       </c>
       <c r="C17">
+        <v>7.6</v>
+      </c>
+      <c r="D17">
         <v>402.4</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>40.409999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>197.91</v>
+      </c>
+      <c r="G17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H17">
+        <v>30.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>24</v>
       </c>
@@ -651,13 +867,25 @@
         <v>754.84</v>
       </c>
       <c r="C18">
+        <v>8.73</v>
+      </c>
+      <c r="D18">
         <v>588.58000000000004</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>46.45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>274.72000000000003</v>
+      </c>
+      <c r="G18">
+        <v>6.18</v>
+      </c>
+      <c r="H18">
+        <v>35.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>25</v>
       </c>
@@ -665,13 +893,25 @@
         <v>754.85</v>
       </c>
       <c r="C19">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D19">
         <v>591.25</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>46.29</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>277.02999999999997</v>
+      </c>
+      <c r="G19">
+        <v>6.02</v>
+      </c>
+      <c r="H19">
+        <v>35.409999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>29</v>
       </c>
@@ -679,13 +919,25 @@
         <v>212.72</v>
       </c>
       <c r="C20">
+        <v>3.16</v>
+      </c>
+      <c r="D20">
         <v>302.91000000000003</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>130.22999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.33</v>
+      </c>
+      <c r="H20">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30</v>
       </c>
@@ -693,13 +945,25 @@
         <v>202.21</v>
       </c>
       <c r="C21">
+        <v>3.2</v>
+      </c>
+      <c r="D21">
         <v>312.35000000000002</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>40.47</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>140.72999999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.2</v>
+      </c>
+      <c r="H21">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>31</v>
       </c>
@@ -707,13 +971,25 @@
         <v>321.52</v>
       </c>
       <c r="C22">
+        <v>6.94</v>
+      </c>
+      <c r="D22">
         <v>397.96</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>40.65</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>186.16</v>
+      </c>
+      <c r="G22">
+        <v>0.38</v>
+      </c>
+      <c r="H22">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>32</v>
       </c>
@@ -721,13 +997,25 @@
         <v>11525.83</v>
       </c>
       <c r="C23">
+        <v>15.57</v>
+      </c>
+      <c r="D23">
         <v>4641.05</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>582.74</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>1712.89</v>
+      </c>
+      <c r="G23">
+        <v>466.88</v>
+      </c>
+      <c r="H23">
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>33</v>
       </c>
@@ -735,13 +1023,25 @@
         <v>287.75</v>
       </c>
       <c r="C24">
+        <v>3.1</v>
+      </c>
+      <c r="D24">
         <v>340.73</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>41.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>148.93</v>
+      </c>
+      <c r="G24">
+        <v>0.78</v>
+      </c>
+      <c r="H24">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>34</v>
       </c>
@@ -749,13 +1049,25 @@
         <v>287.76</v>
       </c>
       <c r="C25">
+        <v>2.99</v>
+      </c>
+      <c r="D25">
         <v>334.14</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>41.15</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>143.21</v>
+      </c>
+      <c r="G25">
+        <v>0.88</v>
+      </c>
+      <c r="H25">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>35</v>
       </c>
@@ -763,13 +1075,25 @@
         <v>777.71</v>
       </c>
       <c r="C26">
+        <v>9.01</v>
+      </c>
+      <c r="D26">
         <v>612.19000000000005</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>46.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>291.08999999999997</v>
+      </c>
+      <c r="G26">
+        <v>5.93</v>
+      </c>
+      <c r="H26">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>36</v>
       </c>
@@ -777,13 +1101,25 @@
         <v>777.71</v>
       </c>
       <c r="C27">
+        <v>8.42</v>
+      </c>
+      <c r="D27">
         <v>588.23</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>47.67</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <v>270.25</v>
+      </c>
+      <c r="G27">
+        <v>7.4</v>
+      </c>
+      <c r="H27">
+        <v>34.549999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>37</v>
       </c>
@@ -791,13 +1127,25 @@
         <v>12836.72</v>
       </c>
       <c r="C28">
+        <v>22.36</v>
+      </c>
+      <c r="D28">
         <v>4826.63</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>734.65</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>1601.7</v>
+      </c>
+      <c r="G28">
+        <v>607.32000000000005</v>
+      </c>
+      <c r="H28">
+        <v>259.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>38</v>
       </c>
@@ -805,13 +1153,25 @@
         <v>426.33</v>
       </c>
       <c r="C29">
+        <v>8.9</v>
+      </c>
+      <c r="D29">
         <v>485.86</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>41.07</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>249.49</v>
+      </c>
+      <c r="G29">
+        <v>0.8</v>
+      </c>
+      <c r="H29">
+        <v>29.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>39</v>
       </c>
@@ -819,13 +1179,25 @@
         <v>426.34</v>
       </c>
       <c r="C30">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D30">
         <v>481.88</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>246.02</v>
+      </c>
+      <c r="G30">
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="H30">
+        <v>29.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>41</v>
       </c>
@@ -833,13 +1205,25 @@
         <v>11190.57</v>
       </c>
       <c r="C31">
+        <v>33.28</v>
+      </c>
+      <c r="D31">
         <v>5505.99</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>2955.24</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2867.85</v>
+      </c>
+      <c r="H31">
+        <v>154.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45</v>
       </c>
@@ -847,13 +1231,25 @@
         <v>309.11</v>
       </c>
       <c r="C32">
+        <v>6.86</v>
+      </c>
+      <c r="D32">
         <v>385.88</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>40.64</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>178.5</v>
+      </c>
+      <c r="G32">
+        <v>0.38</v>
+      </c>
+      <c r="H32">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46</v>
       </c>
@@ -861,13 +1257,25 @@
         <v>51734.1</v>
       </c>
       <c r="C33">
+        <v>12.51</v>
+      </c>
+      <c r="D33">
         <v>15516.08</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>3702.54</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>3310.07</v>
+      </c>
+      <c r="G33">
+        <v>3250.01</v>
+      </c>
+      <c r="H33">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>48</v>
       </c>
@@ -875,13 +1283,25 @@
         <v>269.95999999999998</v>
       </c>
       <c r="C34">
+        <v>7.48</v>
+      </c>
+      <c r="D34">
         <v>394.47</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>40.409999999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>192.68</v>
+      </c>
+      <c r="G34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H34">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>49</v>
       </c>
@@ -889,13 +1309,25 @@
         <v>11572.7</v>
       </c>
       <c r="C35">
+        <v>15.46</v>
+      </c>
+      <c r="D35">
         <v>4633.7299999999996</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>592.41999999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>1696.82</v>
+      </c>
+      <c r="G35">
+        <v>476.14</v>
+      </c>
+      <c r="H35">
+        <v>243.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>50</v>
       </c>
@@ -903,13 +1335,25 @@
         <v>223.63</v>
       </c>
       <c r="C36">
+        <v>3.68</v>
+      </c>
+      <c r="D36">
         <v>326.01</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>40.44</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>143.38</v>
+      </c>
+      <c r="G36">
+        <v>0.17</v>
+      </c>
+      <c r="H36">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>51</v>
       </c>
@@ -917,13 +1361,25 @@
         <v>4257.49</v>
       </c>
       <c r="C37">
+        <v>5.42</v>
+      </c>
+      <c r="D37">
         <v>2088.66</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>166.36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <v>922.11</v>
+      </c>
+      <c r="G37">
+        <v>112.84</v>
+      </c>
+      <c r="H37">
+        <v>99.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>52</v>
       </c>
@@ -931,13 +1387,25 @@
         <v>65038.67</v>
       </c>
       <c r="C38">
+        <v>25.01</v>
+      </c>
+      <c r="D38">
         <v>18783.02</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>11597.79</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>11510.41</v>
+      </c>
+      <c r="H38">
+        <v>663.11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>53</v>
       </c>
@@ -945,13 +1413,25 @@
         <v>4424.07</v>
       </c>
       <c r="C39">
+        <v>5.39</v>
+      </c>
+      <c r="D39">
         <v>2139.19</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>177.56</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>931.38</v>
+      </c>
+      <c r="G39">
+        <v>122.71</v>
+      </c>
+      <c r="H39">
+        <v>103.28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>55</v>
       </c>
@@ -959,13 +1439,25 @@
         <v>35773.800000000003</v>
       </c>
       <c r="C40">
+        <v>31.43</v>
+      </c>
+      <c r="D40">
         <v>11515.77</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>6896.51</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>6809.12</v>
+      </c>
+      <c r="H40">
+        <v>369.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>56</v>
       </c>
@@ -973,13 +1465,25 @@
         <v>150984.79</v>
       </c>
       <c r="C41">
+        <v>36.979999999999997</v>
+      </c>
+      <c r="D41">
         <v>39872.46</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>27661.33</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>27573.95</v>
+      </c>
+      <c r="H41">
+        <v>1421.09</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>57</v>
       </c>
@@ -987,13 +1491,25 @@
         <v>164.32</v>
       </c>
       <c r="C42">
+        <v>4.88</v>
+      </c>
+      <c r="D42">
         <v>245.9</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>40.57</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>87.79</v>
+      </c>
+      <c r="G42">
+        <v>0.3</v>
+      </c>
+      <c r="H42">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>59</v>
       </c>
@@ -1001,13 +1517,25 @@
         <v>261.20999999999998</v>
       </c>
       <c r="C43">
+        <v>3.34</v>
+      </c>
+      <c r="D43">
         <v>303.33</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>41.15</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <v>118.49</v>
+      </c>
+      <c r="G43">
+        <v>0.88</v>
+      </c>
+      <c r="H43">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>61</v>
       </c>
@@ -1015,13 +1543,25 @@
         <v>3319.28</v>
       </c>
       <c r="C44">
+        <v>11.49</v>
+      </c>
+      <c r="D44">
         <v>1524.64</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>156.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>591.14</v>
+      </c>
+      <c r="G44">
+        <v>110.65</v>
+      </c>
+      <c r="H44">
+        <v>76.92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>64</v>
       </c>
@@ -1029,13 +1569,25 @@
         <v>163.43</v>
       </c>
       <c r="C45">
+        <v>3.66</v>
+      </c>
+      <c r="D45">
         <v>265.75</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>40.450000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>105.64</v>
+      </c>
+      <c r="G45">
+        <v>0.18</v>
+      </c>
+      <c r="H45">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>68</v>
       </c>
@@ -1043,13 +1595,25 @@
         <v>6803.81</v>
       </c>
       <c r="C46">
+        <v>12.7</v>
+      </c>
+      <c r="D46">
         <v>2715.94</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>369.34</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>945.76</v>
+      </c>
+      <c r="G46">
+        <v>294.58</v>
+      </c>
+      <c r="H46">
+        <v>144.16999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>70</v>
       </c>
@@ -1057,13 +1621,25 @@
         <v>85153.09</v>
       </c>
       <c r="C47">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="D47">
         <v>25945.07</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>5952.32</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <v>5948.23</v>
+      </c>
+      <c r="G47">
+        <v>5379.34</v>
+      </c>
+      <c r="H47">
+        <v>1146.58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>71</v>
       </c>
@@ -1071,13 +1647,25 @@
         <v>10589.69</v>
       </c>
       <c r="C48">
+        <v>23.84</v>
+      </c>
+      <c r="D48">
         <v>5333.73</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>2621.66</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>2534.2800000000002</v>
+      </c>
+      <c r="H48">
+        <v>140.71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>72</v>
       </c>
@@ -1085,13 +1673,25 @@
         <v>370.72</v>
       </c>
       <c r="C49">
+        <v>7.37</v>
+      </c>
+      <c r="D49">
         <v>433.96</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>207.78</v>
+      </c>
+      <c r="G49">
+        <v>0.53</v>
+      </c>
+      <c r="H49">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>74</v>
       </c>
@@ -1099,13 +1699,25 @@
         <v>14361.41</v>
       </c>
       <c r="C50">
+        <v>24.99</v>
+      </c>
+      <c r="D50">
         <v>6272.16</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>3262.64</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>3175.26</v>
+      </c>
+      <c r="H50">
+        <v>178.71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>75</v>
       </c>
@@ -1113,13 +1725,25 @@
         <v>4766.5200000000004</v>
       </c>
       <c r="C51">
+        <v>5.34</v>
+      </c>
+      <c r="D51">
         <v>2283.7399999999998</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>192.69</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <v>994.14</v>
+      </c>
+      <c r="G51">
+        <v>135.05000000000001</v>
+      </c>
+      <c r="H51">
+        <v>109.14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>76</v>
       </c>
@@ -1127,13 +1751,25 @@
         <v>4209.18</v>
       </c>
       <c r="C52">
+        <v>5.21</v>
+      </c>
+      <c r="D52">
         <v>2015.99</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>171.83</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <v>858.59</v>
+      </c>
+      <c r="G52">
+        <v>118.67</v>
+      </c>
+      <c r="H52">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>77</v>
       </c>
@@ -1141,13 +1777,25 @@
         <v>386.18</v>
       </c>
       <c r="C53">
+        <v>7.44</v>
+      </c>
+      <c r="D53">
         <v>442.89</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>40.86</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <v>212.52</v>
+      </c>
+      <c r="G53">
+        <v>0.59</v>
+      </c>
+      <c r="H53">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>78</v>
       </c>
@@ -1155,13 +1803,25 @@
         <v>11964.42</v>
       </c>
       <c r="C54">
+        <v>15.6</v>
+      </c>
+      <c r="D54">
         <v>4764.53</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>618.85</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>1734.01</v>
+      </c>
+      <c r="G54">
+        <v>499.18</v>
+      </c>
+      <c r="H54">
+        <v>250.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>79</v>
       </c>
@@ -1169,13 +1829,25 @@
         <v>148735.54999999999</v>
       </c>
       <c r="C55">
+        <v>22.16</v>
+      </c>
+      <c r="D55">
         <v>47843.54</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>8988.19</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>13129.76</v>
+      </c>
+      <c r="G55">
+        <v>8306.51</v>
+      </c>
+      <c r="H55">
+        <v>1753.85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>82</v>
       </c>
@@ -1183,13 +1855,25 @@
         <v>13307.54</v>
       </c>
       <c r="C56">
+        <v>52.07</v>
+      </c>
+      <c r="D56">
         <v>6025.74</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>3918.06</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>3830.67</v>
+      </c>
+      <c r="H56">
+        <v>180.46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>84</v>
       </c>
@@ -1197,13 +1881,25 @@
         <v>3563.75</v>
       </c>
       <c r="C57">
+        <v>5.08</v>
+      </c>
+      <c r="D57">
         <v>1406.28</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>212.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>435.56</v>
+      </c>
+      <c r="G57">
+        <v>163.99</v>
+      </c>
+      <c r="H57">
+        <v>69.94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>86</v>
       </c>
@@ -1211,13 +1907,25 @@
         <v>235.84</v>
       </c>
       <c r="C58">
+        <v>3.28</v>
+      </c>
+      <c r="D58">
         <v>287.58</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>41.08</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>110.81</v>
+      </c>
+      <c r="G58">
+        <v>0.81</v>
+      </c>
+      <c r="H58">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>87</v>
       </c>
@@ -1225,13 +1933,25 @@
         <v>4034.71</v>
       </c>
       <c r="C59">
+        <v>5.49</v>
+      </c>
+      <c r="D59">
         <v>2107.2600000000002</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>136.24</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>983.67</v>
+      </c>
+      <c r="G59">
+        <v>84.46</v>
+      </c>
+      <c r="H59">
+        <v>101.22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>88</v>
       </c>
@@ -1239,13 +1959,25 @@
         <v>35991.79</v>
       </c>
       <c r="C60">
+        <v>16.52</v>
+      </c>
+      <c r="D60">
         <v>11722.9</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>2380.42</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>3054.74</v>
+      </c>
+      <c r="G60">
+        <v>2046.54</v>
+      </c>
+      <c r="H60">
+        <v>604.96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>91</v>
       </c>
@@ -1253,13 +1985,25 @@
         <v>74022.45</v>
       </c>
       <c r="C61">
+        <v>75.180000000000007</v>
+      </c>
+      <c r="D61">
         <v>21011.439999999999</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>14883.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>14796.01</v>
+      </c>
+      <c r="H61">
+        <v>745.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>92</v>
       </c>
@@ -1267,13 +2011,25 @@
         <v>10402.42</v>
       </c>
       <c r="C62">
+        <v>10.73</v>
+      </c>
+      <c r="D62">
         <v>3599.45</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>671.18</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>990.7</v>
+      </c>
+      <c r="G62">
+        <v>565.15</v>
+      </c>
+      <c r="H62">
+        <v>198.89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>99</v>
       </c>
@@ -1281,13 +2037,25 @@
         <v>605.45000000000005</v>
       </c>
       <c r="C63">
+        <v>3.66</v>
+      </c>
+      <c r="D63">
         <v>461.54</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>46.81</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>202.08</v>
+      </c>
+      <c r="G63">
+        <v>6.54</v>
+      </c>
+      <c r="H63">
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>100</v>
       </c>
@@ -1295,13 +2063,25 @@
         <v>42305.17</v>
       </c>
       <c r="C64">
+        <v>63.84</v>
+      </c>
+      <c r="D64">
         <v>13343.06</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>10366.43</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>10279.040000000001</v>
+      </c>
+      <c r="H64">
+        <v>509.59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>101</v>
       </c>
@@ -1309,13 +2089,25 @@
         <v>9876.5400000000009</v>
       </c>
       <c r="C65">
+        <v>46.53</v>
+      </c>
+      <c r="D65">
         <v>5183.45</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>3666.26</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>3578.87</v>
+      </c>
+      <c r="H65">
+        <v>147.80000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>103</v>
       </c>
@@ -1323,13 +2115,25 @@
         <v>2087.29</v>
       </c>
       <c r="C66">
+        <v>7.11</v>
+      </c>
+      <c r="D66">
         <v>1459.2</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>51</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>781.88</v>
+      </c>
+      <c r="G66">
+        <v>10.68</v>
+      </c>
+      <c r="H66">
+        <v>74.62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>104</v>
       </c>
@@ -1337,13 +2141,25 @@
         <v>20472.32</v>
       </c>
       <c r="C67">
+        <v>41.21</v>
+      </c>
+      <c r="D67">
         <v>7808.67</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>5191.21</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>5103.82</v>
+      </c>
+      <c r="H67">
+        <v>230.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>105</v>
       </c>
@@ -1351,13 +2167,25 @@
         <v>49959.61</v>
       </c>
       <c r="C68">
+        <v>44.19</v>
+      </c>
+      <c r="D68">
         <v>15054.6</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>9915.52</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>9828.1299999999992</v>
+      </c>
+      <c r="H68">
+        <v>514.87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>109</v>
       </c>
@@ -1365,13 +2193,25 @@
         <v>2827.05</v>
       </c>
       <c r="C69">
+        <v>10.94</v>
+      </c>
+      <c r="D69">
         <v>1533.03</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>92.88</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <v>695.98</v>
+      </c>
+      <c r="G69">
+        <v>49.85</v>
+      </c>
+      <c r="H69">
+        <v>80.27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>110</v>
       </c>
@@ -1379,13 +2219,25 @@
         <v>5710.31</v>
       </c>
       <c r="C70">
+        <v>5.42</v>
+      </c>
+      <c r="D70">
         <v>2732.18</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>220.54</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <v>1197.98</v>
+      </c>
+      <c r="G70">
+        <v>155.04</v>
+      </c>
+      <c r="H70">
+        <v>136.58000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>113</v>
       </c>
@@ -1393,13 +2245,25 @@
         <v>80254.33</v>
       </c>
       <c r="C71">
+        <v>45.35</v>
+      </c>
+      <c r="D71">
         <v>22567.03</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>14828.48</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>14741.09</v>
+      </c>
+      <c r="H71">
+        <v>818.26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>114</v>
       </c>
@@ -1407,13 +2271,25 @@
         <v>43059.35</v>
       </c>
       <c r="C72">
+        <v>52.12</v>
+      </c>
+      <c r="D72">
         <v>13354.23</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>8848.8700000000008</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>8761.48</v>
+      </c>
+      <c r="H72">
+        <v>450.27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>115</v>
       </c>
@@ -1421,13 +2297,25 @@
         <v>18515.21</v>
       </c>
       <c r="C73">
+        <v>14.39</v>
+      </c>
+      <c r="D73">
         <v>6150.44</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>1230.96</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <v>1623.74</v>
+      </c>
+      <c r="G73">
+        <v>1053.56</v>
+      </c>
+      <c r="H73">
+        <v>330.34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>116</v>
       </c>
@@ -1435,13 +2323,25 @@
         <v>42354.27</v>
       </c>
       <c r="C74">
+        <v>27.04</v>
+      </c>
+      <c r="D74">
         <v>13714.28</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>2833.94</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <v>3527.61</v>
+      </c>
+      <c r="G74">
+        <v>2446.81</v>
+      </c>
+      <c r="H74">
+        <v>726.01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>121</v>
       </c>
@@ -1449,13 +2349,25 @@
         <v>14006.31</v>
       </c>
       <c r="C75">
+        <v>21.44</v>
+      </c>
+      <c r="D75">
         <v>6028.53</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>637.04999999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <v>2458.84</v>
+      </c>
+      <c r="G75">
+        <v>499.47</v>
+      </c>
+      <c r="H75">
+        <v>313.92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>122</v>
       </c>
@@ -1463,13 +2375,25 @@
         <v>107087.96</v>
       </c>
       <c r="C76">
+        <v>26.98</v>
+      </c>
+      <c r="D76">
         <v>32335.11</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>7437.76</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <v>7231.97</v>
+      </c>
+      <c r="G76">
+        <v>6816.16</v>
+      </c>
+      <c r="H76">
+        <v>1459.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>123</v>
       </c>
@@ -1477,13 +2401,25 @@
         <v>17997.97</v>
       </c>
       <c r="C77">
+        <v>39.19</v>
+      </c>
+      <c r="D77">
         <v>7220.81</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>4318.67</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>4231.28</v>
+      </c>
+      <c r="H77">
+        <v>230.99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>124</v>
       </c>
@@ -1491,13 +2427,25 @@
         <v>29402.38</v>
       </c>
       <c r="C78">
+        <v>21.03</v>
+      </c>
+      <c r="D78">
         <v>12354.81</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>1335.46</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <v>5067.9399999999996</v>
+      </c>
+      <c r="G78">
+        <v>1060.74</v>
+      </c>
+      <c r="H78">
+        <v>589.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>125</v>
       </c>
@@ -1505,13 +2453,25 @@
         <v>15654.25</v>
       </c>
       <c r="C79">
+        <v>10.49</v>
+      </c>
+      <c r="D79">
         <v>5607.07</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>943.21</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <v>1744.56</v>
+      </c>
+      <c r="G79">
+        <v>791.12</v>
+      </c>
+      <c r="H79">
+        <v>280.05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>126</v>
       </c>
@@ -1519,13 +2479,25 @@
         <v>615.25</v>
       </c>
       <c r="C80">
+        <v>11.66</v>
+      </c>
+      <c r="D80">
         <v>563.02</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>42.51</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F80">
+        <v>272.95</v>
+      </c>
+      <c r="G80">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H80">
+        <v>40.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>131</v>
       </c>
@@ -1533,13 +2505,25 @@
         <v>16993.830000000002</v>
       </c>
       <c r="C81">
+        <v>52.82</v>
+      </c>
+      <c r="D81">
         <v>7051.99</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>838.52</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F81">
+        <v>2793.73</v>
+      </c>
+      <c r="G81">
+        <v>674.61</v>
+      </c>
+      <c r="H81">
+        <v>340.28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>132</v>
       </c>
@@ -1547,13 +2531,25 @@
         <v>11906.07</v>
       </c>
       <c r="C82">
+        <v>35.93</v>
+      </c>
+      <c r="D82">
         <v>4831.4399999999996</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>609.29</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F82">
+        <v>1819.11</v>
+      </c>
+      <c r="G82">
+        <v>490.13</v>
+      </c>
+      <c r="H82">
+        <v>239.05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>133</v>
       </c>
@@ -1561,13 +2557,25 @@
         <v>403.84</v>
       </c>
       <c r="C83">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="D83">
         <v>469.49</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>40.729999999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F83">
+        <v>230.38</v>
+      </c>
+      <c r="G83">
+        <v>0.46</v>
+      </c>
+      <c r="H83">
+        <v>36.229999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>141</v>
       </c>
@@ -1575,13 +2583,25 @@
         <v>40090.550000000003</v>
       </c>
       <c r="C84">
+        <v>32.22</v>
+      </c>
+      <c r="D84">
         <v>12601.11</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>7953.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>7866.31</v>
+      </c>
+      <c r="H84">
+        <v>417.59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>153</v>
       </c>
@@ -1589,13 +2609,25 @@
         <v>111.81</v>
       </c>
       <c r="C85">
+        <v>8.75</v>
+      </c>
+      <c r="D85">
         <v>268.67</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>40.29</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F85">
+        <v>114.6</v>
+      </c>
+      <c r="G85">
+        <v>0.02</v>
+      </c>
+      <c r="H85">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>154</v>
       </c>
@@ -1603,13 +2635,25 @@
         <v>20725.71</v>
       </c>
       <c r="C86">
+        <v>31.83</v>
+      </c>
+      <c r="D86">
         <v>7889.76</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>4708.74</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>4621.3599999999997</v>
+      </c>
+      <c r="H86">
+        <v>241.31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>173</v>
       </c>
@@ -1617,13 +2661,25 @@
         <v>8670.61</v>
       </c>
       <c r="C87">
+        <v>12.24</v>
+      </c>
+      <c r="D87">
         <v>3266.96</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>497.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F87">
+        <v>1045.28</v>
+      </c>
+      <c r="G87">
+        <v>406.66</v>
+      </c>
+      <c r="H87">
+        <v>181.35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>197</v>
       </c>
@@ -1631,13 +2687,25 @@
         <v>1687.97</v>
       </c>
       <c r="C88">
+        <v>16.87</v>
+      </c>
+      <c r="D88">
         <v>1095.8800000000001</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>59.74</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F88">
+        <v>565.48</v>
+      </c>
+      <c r="G88">
+        <v>19.47</v>
+      </c>
+      <c r="H88">
+        <v>41.08</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>204</v>
       </c>
@@ -1645,13 +2713,25 @@
         <v>9716.9500000000007</v>
       </c>
       <c r="C89">
+        <v>10.54</v>
+      </c>
+      <c r="D89">
         <v>3521.19</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>594.28</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F89">
+        <v>1069.07</v>
+      </c>
+      <c r="G89">
+        <v>494.21</v>
+      </c>
+      <c r="H89">
+        <v>186.01</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>211</v>
       </c>
@@ -1659,13 +2739,25 @@
         <v>213532.77</v>
       </c>
       <c r="C90">
+        <v>46.53</v>
+      </c>
+      <c r="D90">
         <v>61986.23</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>14745.31</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F90">
+        <v>12350.97</v>
+      </c>
+      <c r="G90">
+        <v>14006.46</v>
+      </c>
+      <c r="H90">
+        <v>2684.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>220</v>
       </c>
@@ -1673,13 +2765,25 @@
         <v>15853.6</v>
       </c>
       <c r="C91">
+        <v>42.44</v>
+      </c>
+      <c r="D91">
         <v>6630.95</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>733.44</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F91">
+        <v>2607.86</v>
+      </c>
+      <c r="G91">
+        <v>579.6</v>
+      </c>
+      <c r="H91">
+        <v>344.52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>257</v>
       </c>
@@ -1687,13 +2791,25 @@
         <v>6776.35</v>
       </c>
       <c r="C92">
+        <v>20.9</v>
+      </c>
+      <c r="D92">
         <v>2994.43</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>305.63</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F92">
+        <v>1215.98</v>
+      </c>
+      <c r="G92">
+        <v>231.11</v>
+      </c>
+      <c r="H92">
+        <v>145.62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>273</v>
       </c>
@@ -1701,13 +2817,25 @@
         <v>4714.76</v>
       </c>
       <c r="C93">
+        <v>5.38</v>
+      </c>
+      <c r="D93">
         <v>1741.6</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>304.57</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <v>499.44</v>
+      </c>
+      <c r="G93">
+        <v>247.33</v>
+      </c>
+      <c r="H93">
+        <v>91.02</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>305</v>
       </c>
@@ -1715,13 +2843,25 @@
         <v>23923.18</v>
       </c>
       <c r="C94">
+        <v>28.87</v>
+      </c>
+      <c r="D94">
         <v>8720.5</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>5800.97</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>5713.58</v>
+      </c>
+      <c r="H94">
+        <v>308.38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>323</v>
       </c>
@@ -1729,13 +2869,25 @@
         <v>3632.11</v>
       </c>
       <c r="C95">
+        <v>9.17</v>
+      </c>
+      <c r="D95">
         <v>1543.63</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>195.35</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F95">
+        <v>549.13</v>
+      </c>
+      <c r="G95">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="H95">
+        <v>73.88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>419</v>
       </c>
@@ -1743,13 +2895,25 @@
         <v>59710.8</v>
       </c>
       <c r="C96">
+        <v>31.19</v>
+      </c>
+      <c r="D96">
         <v>17567.75</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>11747.37</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>11659.99</v>
+      </c>
+      <c r="H96">
+        <v>651.63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>599</v>
       </c>
@@ -1757,13 +2921,25 @@
         <v>9866.64</v>
       </c>
       <c r="C97">
+        <v>13.28</v>
+      </c>
+      <c r="D97">
         <v>3909.76</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>526.65</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F97">
+        <v>1391.71</v>
+      </c>
+      <c r="G97">
+        <v>425.3</v>
+      </c>
+      <c r="H97">
+        <v>205.71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>603</v>
       </c>
@@ -1771,13 +2947,25 @@
         <v>177629.75</v>
       </c>
       <c r="C98">
+        <v>43.17</v>
+      </c>
+      <c r="D98">
         <v>46284.93</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>31190.12</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>31102.73</v>
+      </c>
+      <c r="H98">
+        <v>1608.37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>620</v>
       </c>
@@ -1785,13 +2973,25 @@
         <v>414615.57</v>
       </c>
       <c r="C99">
+        <v>24.34</v>
+      </c>
+      <c r="D99">
         <v>103689.22</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>62617.72</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>62530.34</v>
+      </c>
+      <c r="H99">
+        <v>3400.91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>643</v>
       </c>
@@ -1799,13 +2999,25 @@
         <v>181.54</v>
       </c>
       <c r="C100">
+        <v>13.18</v>
+      </c>
+      <c r="D100">
         <v>360.92</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>40.31</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F100">
+        <v>179.5</v>
+      </c>
+      <c r="G100">
+        <v>0.04</v>
+      </c>
+      <c r="H100">
+        <v>28.87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>655</v>
       </c>
@@ -1813,13 +3025,25 @@
         <v>119167.37</v>
       </c>
       <c r="C101">
+        <v>53.52</v>
+      </c>
+      <c r="D101">
         <v>32419.16</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>23308.77</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>23221.38</v>
+      </c>
+      <c r="H101">
+        <v>1280.25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>656</v>
       </c>
@@ -1827,13 +3051,25 @@
         <v>19623.22</v>
       </c>
       <c r="C102">
+        <v>35.78</v>
+      </c>
+      <c r="D102">
         <v>7602.64</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>4519.49</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>4432.1099999999997</v>
+      </c>
+      <c r="H102">
+        <v>225.74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>657</v>
       </c>
@@ -1841,13 +3077,25 @@
         <v>1561.25</v>
       </c>
       <c r="C103">
+        <v>5.35</v>
+      </c>
+      <c r="D103">
         <v>808.31</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>84.56</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F103">
+        <v>320.77999999999997</v>
+      </c>
+      <c r="G103">
+        <v>44.29</v>
+      </c>
+      <c r="H103">
+        <v>32.590000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>661</v>
       </c>
@@ -1855,13 +3103,25 @@
         <v>23262.74</v>
       </c>
       <c r="C104">
+        <v>28.21</v>
+      </c>
+      <c r="D104">
         <v>8514.32</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>5026.3500000000004</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>4938.96</v>
+      </c>
+      <c r="H104">
+        <v>263.55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>665</v>
       </c>
@@ -1869,13 +3129,25 @@
         <v>100071.74</v>
       </c>
       <c r="C105">
+        <v>38.79</v>
+      </c>
+      <c r="D105">
         <v>27652.57</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>19434.84</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>19347.46</v>
+      </c>
+      <c r="H105">
+        <v>1084.17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>668</v>
       </c>
@@ -1883,13 +3155,25 @@
         <v>71988.570000000007</v>
       </c>
       <c r="C106">
+        <v>30.01</v>
+      </c>
+      <c r="D106">
         <v>20650.87</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>14411.71</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>14324.33</v>
+      </c>
+      <c r="H106">
+        <v>789.35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>671</v>
       </c>
@@ -1897,13 +3181,25 @@
         <v>46857.05</v>
       </c>
       <c r="C107">
+        <v>74.59</v>
+      </c>
+      <c r="D107">
         <v>14580.39</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>11854.28</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>11766.9</v>
+      </c>
+      <c r="H107">
+        <v>597.04</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>675</v>
       </c>
@@ -1911,13 +3207,25 @@
         <v>19644.48</v>
       </c>
       <c r="C108">
+        <v>15.67</v>
+      </c>
+      <c r="D108">
         <v>7799.9</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>1014.7</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F108">
+        <v>2926.03</v>
+      </c>
+      <c r="G108">
+        <v>827.25</v>
+      </c>
+      <c r="H108">
+        <v>381.01</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1449</v>
       </c>
@@ -1925,13 +3233,25 @@
         <v>4516.6499999999996</v>
       </c>
       <c r="C109">
+        <v>30.61</v>
+      </c>
+      <c r="D109">
         <v>3787.81</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>1712.59</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>1625.21</v>
+      </c>
+      <c r="H109">
+        <v>68.989999999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1498</v>
       </c>
@@ -1939,13 +3259,25 @@
         <v>17981.29</v>
       </c>
       <c r="C110">
+        <v>27.24</v>
+      </c>
+      <c r="D110">
         <v>7202.24</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>4035.42</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>3948.04</v>
+      </c>
+      <c r="H110">
+        <v>226.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1534</v>
       </c>
@@ -1953,13 +3285,25 @@
         <v>38326.57</v>
       </c>
       <c r="C111">
+        <v>42.51</v>
+      </c>
+      <c r="D111">
         <v>12240.3</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>8116.18</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>8028.8</v>
+      </c>
+      <c r="H111">
+        <v>430.12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1574</v>
       </c>
@@ -1967,13 +3311,25 @@
         <v>28472.35</v>
       </c>
       <c r="C112">
+        <v>49.22</v>
+      </c>
+      <c r="D112">
         <v>9792.82</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>6556.41</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>6469.03</v>
+      </c>
+      <c r="H112">
+        <v>330.65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1580</v>
       </c>
@@ -1981,13 +3337,25 @@
         <v>25880.84</v>
       </c>
       <c r="C113">
+        <v>36.29</v>
+      </c>
+      <c r="D113">
         <v>9188.91</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>6134.79</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>6047.4</v>
+      </c>
+      <c r="H113">
+        <v>320.61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1586</v>
       </c>
@@ -1995,13 +3363,25 @@
         <v>18288.3</v>
       </c>
       <c r="C114">
+        <v>26.71</v>
+      </c>
+      <c r="D114">
         <v>7314.34</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>4436.8</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>4349.41</v>
+      </c>
+      <c r="H114">
+        <v>230.68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1609</v>
       </c>
@@ -2009,13 +3389,25 @@
         <v>44058.03</v>
       </c>
       <c r="C115">
+        <v>52.82</v>
+      </c>
+      <c r="D115">
         <v>13670.21</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>9435.1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>9347.7099999999991</v>
+      </c>
+      <c r="H115">
+        <v>486.59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1623</v>
       </c>
@@ -2023,13 +3415,25 @@
         <v>81355.63</v>
       </c>
       <c r="C116">
+        <v>38.409999999999997</v>
+      </c>
+      <c r="D116">
         <v>22685.22</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>14152.63</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>14065.24</v>
+      </c>
+      <c r="H116">
+        <v>767.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1697</v>
       </c>
@@ -2037,13 +3441,25 @@
         <v>241.89</v>
       </c>
       <c r="C117">
+        <v>13.73</v>
+      </c>
+      <c r="D117">
         <v>377.34</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>40.47</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F117">
+        <v>183.17</v>
+      </c>
+      <c r="G117">
+        <v>0.2</v>
+      </c>
+      <c r="H117">
+        <v>28.67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1700</v>
       </c>
@@ -2051,13 +3467,25 @@
         <v>40048.93</v>
       </c>
       <c r="C118">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="D118">
         <v>12644.61</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>2827.15</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F118">
+        <v>3057.49</v>
+      </c>
+      <c r="G118">
+        <v>2458.5100000000002</v>
+      </c>
+      <c r="H118">
+        <v>653.48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>1709</v>
       </c>
@@ -2065,13 +3493,25 @@
         <v>75127.34</v>
       </c>
       <c r="C119">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="D119">
         <v>21231.97</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>13616.92</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>13529.53</v>
+      </c>
+      <c r="H119">
+        <v>741.43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1755</v>
       </c>
@@ -2079,13 +3519,25 @@
         <v>21690.6</v>
       </c>
       <c r="C120">
+        <v>26.26</v>
+      </c>
+      <c r="D120">
         <v>8059.34</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>4472.7299999999996</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>4385.34</v>
+      </c>
+      <c r="H120">
+        <v>225.12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1779</v>
       </c>
@@ -2093,13 +3545,25 @@
         <v>90214.74</v>
       </c>
       <c r="C121">
+        <v>28.02</v>
+      </c>
+      <c r="D121">
         <v>24884.15</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>17061.919999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>16974.54</v>
+      </c>
+      <c r="H121">
+        <v>851.03</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2248</v>
       </c>
@@ -2107,13 +3571,25 @@
         <v>668.45</v>
       </c>
       <c r="C122">
+        <v>5.51</v>
+      </c>
+      <c r="D122">
         <v>499.62</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>46.94</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F122">
+        <v>223.03</v>
+      </c>
+      <c r="G122">
+        <v>6.67</v>
+      </c>
+      <c r="H122">
+        <v>17.690000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2251</v>
       </c>
@@ -2121,13 +3597,25 @@
         <v>13851.12</v>
       </c>
       <c r="C123">
+        <v>30.13</v>
+      </c>
+      <c r="D123">
         <v>6142.33</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>3487.63</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>3400.24</v>
+      </c>
+      <c r="H123">
+        <v>171.46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2726</v>
       </c>
@@ -2135,13 +3623,25 @@
         <v>7364.05</v>
       </c>
       <c r="C124">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D124">
         <v>2750.46</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>439.47</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F124">
+        <v>852.09</v>
+      </c>
+      <c r="G124">
+        <v>359.86</v>
+      </c>
+      <c r="H124">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2861</v>
       </c>
@@ -2149,13 +3649,25 @@
         <v>14018.56</v>
       </c>
       <c r="C125">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="D125">
         <v>5004.3100000000004</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>885.24</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F125">
+        <v>1531.98</v>
+      </c>
+      <c r="G125">
+        <v>747.57</v>
+      </c>
+      <c r="H125">
+        <v>260.49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2868</v>
       </c>
@@ -2163,13 +3675,25 @@
         <v>2754.89</v>
       </c>
       <c r="C126">
+        <v>6.75</v>
+      </c>
+      <c r="D126">
         <v>1330.04</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>128.46</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F126">
+        <v>544.35</v>
+      </c>
+      <c r="G126">
+        <v>85.81</v>
+      </c>
+      <c r="H126">
+        <v>57.64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>3225</v>
       </c>
@@ -2177,13 +3701,25 @@
         <v>97337.06</v>
       </c>
       <c r="C127">
+        <v>55.49</v>
+      </c>
+      <c r="D127">
         <v>27372.67</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>23032.94</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>22945.56</v>
+      </c>
+      <c r="H127">
+        <v>1204.8399999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>3283</v>
       </c>
@@ -2191,13 +3727,25 @@
         <v>1638.39</v>
       </c>
       <c r="C128">
+        <v>8.17</v>
+      </c>
+      <c r="D128">
         <v>860.44</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>83.06</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F128">
+        <v>350.72</v>
+      </c>
+      <c r="G128">
+        <v>42.79</v>
+      </c>
+      <c r="H128">
+        <v>36.32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>3296</v>
       </c>
@@ -2205,13 +3753,25 @@
         <v>40644.519999999997</v>
       </c>
       <c r="C129">
+        <v>24.53</v>
+      </c>
+      <c r="D129">
         <v>13954.09</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>2576.64</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F129">
+        <v>4135.01</v>
+      </c>
+      <c r="G129">
+        <v>2203.17</v>
+      </c>
+      <c r="H129">
+        <v>714.65</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>3346</v>
       </c>
@@ -2219,13 +3779,25 @@
         <v>96267.38</v>
       </c>
       <c r="C130">
+        <v>141.68</v>
+      </c>
+      <c r="D130">
         <v>26649.74</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>22378.91</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>22291.52</v>
+      </c>
+      <c r="H130">
+        <v>1000.66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>3353</v>
       </c>
@@ -2233,13 +3805,25 @@
         <v>11330.45</v>
       </c>
       <c r="C131">
+        <v>28.73</v>
+      </c>
+      <c r="D131">
         <v>5530.27</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>2922.14</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>2834.75</v>
+      </c>
+      <c r="H131">
+        <v>152.52000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>3363</v>
       </c>
@@ -2247,13 +3831,25 @@
         <v>9498.5499999999993</v>
       </c>
       <c r="C132">
+        <v>17.47</v>
+      </c>
+      <c r="D132">
         <v>3706.41</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>529.99</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F132">
+        <v>1279.33</v>
+      </c>
+      <c r="G132">
+        <v>431.83</v>
+      </c>
+      <c r="H132">
+        <v>200.66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>3372</v>
       </c>
@@ -2261,13 +3857,25 @@
         <v>48280.9</v>
       </c>
       <c r="C133">
+        <v>39.43</v>
+      </c>
+      <c r="D133">
         <v>14711.37</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>9809.86</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>9722.48</v>
+      </c>
+      <c r="H133">
+        <v>527.98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>3375</v>
       </c>
@@ -2275,13 +3883,25 @@
         <v>12591.04</v>
       </c>
       <c r="C134">
+        <v>11.93</v>
+      </c>
+      <c r="D134">
         <v>4530.87</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>761.92</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F134">
+        <v>1377.74</v>
+      </c>
+      <c r="G134">
+        <v>636.78</v>
+      </c>
+      <c r="H134">
+        <v>246.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>3416</v>
       </c>
@@ -2289,13 +3909,25 @@
         <v>43130.38</v>
       </c>
       <c r="C135">
+        <v>54.5</v>
+      </c>
+      <c r="D135">
         <v>13583.47</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>10301.16</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>10213.77</v>
+      </c>
+      <c r="H135">
+        <v>534.28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>3421</v>
       </c>
@@ -2303,13 +3935,25 @@
         <v>121960.34</v>
       </c>
       <c r="C136">
+        <v>47.61</v>
+      </c>
+      <c r="D136">
         <v>32669.8</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>20564.43</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>20477.05</v>
+      </c>
+      <c r="H136">
+        <v>1139.5899999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>3476</v>
       </c>
@@ -2317,13 +3961,25 @@
         <v>75573.740000000005</v>
       </c>
       <c r="C137">
+        <v>38.81</v>
+      </c>
+      <c r="D137">
         <v>21351.15</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>13661.65</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>13574.27</v>
+      </c>
+      <c r="H137">
+        <v>750.56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>3518</v>
       </c>
@@ -2331,13 +3987,25 @@
         <v>184934.75</v>
       </c>
       <c r="C138">
+        <v>47.46</v>
+      </c>
+      <c r="D138">
         <v>48064.5</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>31439.040000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>31351.65</v>
+      </c>
+      <c r="H138">
+        <v>1671.26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>3553</v>
       </c>
@@ -2345,13 +4013,25 @@
         <v>312.69</v>
       </c>
       <c r="C139">
+        <v>9.89</v>
+      </c>
+      <c r="D139">
         <v>603.34</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>40.380000000000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F139">
+        <v>376.51</v>
+      </c>
+      <c r="G139">
+        <v>0.11</v>
+      </c>
+      <c r="H139">
+        <v>41.61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>3684</v>
       </c>
@@ -2359,13 +4039,25 @@
         <v>1246.94</v>
       </c>
       <c r="C140">
+        <v>9.43</v>
+      </c>
+      <c r="D140">
         <v>1038.93</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>44.59</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F140">
+        <v>612.59</v>
+      </c>
+      <c r="G140">
+        <v>4.32</v>
+      </c>
+      <c r="H140">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>3713</v>
       </c>
@@ -2373,13 +4065,25 @@
         <v>6121.09</v>
       </c>
       <c r="C141">
+        <v>10.69</v>
+      </c>
+      <c r="D141">
         <v>2957.76</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>243.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F141">
+        <v>1338.11</v>
+      </c>
+      <c r="G141">
+        <v>174.45</v>
+      </c>
+      <c r="H141">
+        <v>135.55000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>3718</v>
       </c>
@@ -2387,13 +4091,25 @@
         <v>411.92</v>
       </c>
       <c r="C142">
+        <v>8.36</v>
+      </c>
+      <c r="D142">
         <v>505.2</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>40.82</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F142">
+        <v>270.27999999999997</v>
+      </c>
+      <c r="G142">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H142">
+        <v>31.17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>3932</v>
       </c>
@@ -2401,13 +4117,25 @@
         <v>19327.27</v>
       </c>
       <c r="C143">
+        <v>46.8</v>
+      </c>
+      <c r="D143">
         <v>7550.53</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>5369.05</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>5281.67</v>
+      </c>
+      <c r="H143">
+        <v>227.46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>4958</v>
       </c>
@@ -2415,13 +4143,25 @@
         <v>186219.86</v>
       </c>
       <c r="C144">
+        <v>129.83000000000001</v>
+      </c>
+      <c r="D144">
         <v>48912.15</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>40518.300000000003</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>40430.910000000003</v>
+      </c>
+      <c r="H144">
+        <v>1853.09</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>5099</v>
       </c>
@@ -2429,13 +4169,25 @@
         <v>88732.3</v>
       </c>
       <c r="C145">
+        <v>52.68</v>
+      </c>
+      <c r="D145">
         <v>24654.49</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>16486.03</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>16398.64</v>
+      </c>
+      <c r="H145">
+        <v>895.65</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>5100</v>
       </c>
@@ -2443,13 +4195,25 @@
         <v>56739.87</v>
       </c>
       <c r="C146">
+        <v>108.53</v>
+      </c>
+      <c r="D146">
         <v>17063.91</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>14469.34</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>14381.95</v>
+      </c>
+      <c r="H146">
+        <v>705.76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>5108</v>
       </c>
@@ -2457,13 +4221,25 @@
         <v>23463.31</v>
       </c>
       <c r="C147">
+        <v>49.34</v>
+      </c>
+      <c r="D147">
         <v>8564.06</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>5717.44</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>5630.05</v>
+      </c>
+      <c r="H147">
+        <v>262.83999999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>5113</v>
       </c>
@@ -2471,13 +4247,25 @@
         <v>87173.04</v>
       </c>
       <c r="C148">
+        <v>33.97</v>
+      </c>
+      <c r="D148">
         <v>24230.880000000001</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>17449.46</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>17362.080000000002</v>
+      </c>
+      <c r="H148">
+        <v>858.51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>5114</v>
       </c>
@@ -2485,13 +4273,25 @@
         <v>226759.69</v>
       </c>
       <c r="C149">
+        <v>84.11</v>
+      </c>
+      <c r="D149">
         <v>58482.04</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>38376.07</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>38288.68</v>
+      </c>
+      <c r="H149">
+        <v>2108.61</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>5133</v>
       </c>
@@ -2499,13 +4299,25 @@
         <v>538351.89</v>
       </c>
       <c r="C150">
+        <v>46.17</v>
+      </c>
+      <c r="D150">
         <v>137147.96</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>133218.10999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>133130.72</v>
+      </c>
+      <c r="H150">
+        <v>5601.99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>5152</v>
       </c>
@@ -2513,13 +4325,25 @@
         <v>90138.58</v>
       </c>
       <c r="C151">
+        <v>72.489999999999995</v>
+      </c>
+      <c r="D151">
         <v>25212.22</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>18729.669999999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>18642.29</v>
+      </c>
+      <c r="H151">
+        <v>988.34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>5153</v>
       </c>
@@ -2527,13 +4351,25 @@
         <v>54238.02</v>
       </c>
       <c r="C152">
+        <v>59.84</v>
+      </c>
+      <c r="D152">
         <v>16452.87</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>13607.59</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>13520.21</v>
+      </c>
+      <c r="H152">
+        <v>687.62</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>5160</v>
       </c>
@@ -2541,13 +4377,25 @@
         <v>64306.58</v>
       </c>
       <c r="C153">
+        <v>50.42</v>
+      </c>
+      <c r="D153">
         <v>18731.22</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>13109.06</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>13021.67</v>
+      </c>
+      <c r="H153">
+        <v>705.06</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>5172</v>
       </c>
@@ -2555,13 +4403,25 @@
         <v>68877.34</v>
       </c>
       <c r="C154">
+        <v>83.6</v>
+      </c>
+      <c r="D154">
         <v>19804.87</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>15653.15</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>15565.76</v>
+      </c>
+      <c r="H154">
+        <v>716.86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>5178</v>
       </c>
@@ -2569,13 +4429,25 @@
         <v>46214.38</v>
       </c>
       <c r="C155">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="D155">
         <v>14177.45</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>10397.27</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>10309.879999999999</v>
+      </c>
+      <c r="H155">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>5187</v>
       </c>
@@ -2583,13 +4455,25 @@
         <v>49671.040000000001</v>
       </c>
       <c r="C156">
+        <v>54.32</v>
+      </c>
+      <c r="D156">
         <v>15228.01</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <v>11589.63</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>11502.24</v>
+      </c>
+      <c r="H156">
+        <v>608.87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>5277</v>
       </c>
@@ -2597,13 +4481,25 @@
         <v>40999.550000000003</v>
       </c>
       <c r="C157">
+        <v>60.48</v>
+      </c>
+      <c r="D157">
         <v>12851.23</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>8986.0499999999993</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>8898.66</v>
+      </c>
+      <c r="H157">
+        <v>432.06</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>5347</v>
       </c>
@@ -2611,13 +4507,25 @@
         <v>398666.41</v>
       </c>
       <c r="C158">
+        <v>94.92</v>
+      </c>
+      <c r="D158">
         <v>100716.17</v>
       </c>
-      <c r="D158">
+      <c r="E158">
         <v>72631.960000000006</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>72544.58</v>
+      </c>
+      <c r="H158">
+        <v>3638.79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>5845</v>
       </c>
@@ -2625,13 +4533,25 @@
         <v>2680.74</v>
       </c>
       <c r="C159">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D159">
         <v>1291.33</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>126.29</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F159">
+        <v>518.04</v>
+      </c>
+      <c r="G159">
+        <v>84.01</v>
+      </c>
+      <c r="H159">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>5914</v>
       </c>
@@ -2639,13 +4559,25 @@
         <v>134.91</v>
       </c>
       <c r="C160">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D160">
         <v>203.98</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>40.840000000000003</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F160">
+        <v>57.92</v>
+      </c>
+      <c r="G160">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="H160">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>6077</v>
       </c>
@@ -2653,13 +4585,25 @@
         <v>119099.21</v>
       </c>
       <c r="C161">
+        <v>141.54</v>
+      </c>
+      <c r="D161">
         <v>32259.61</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>25899.21</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>25811.83</v>
+      </c>
+      <c r="H161">
+        <v>1207.1600000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>6213</v>
       </c>
@@ -2667,13 +4611,25 @@
         <v>33456.85</v>
       </c>
       <c r="C162">
+        <v>53.63</v>
+      </c>
+      <c r="D162">
         <v>11026.66</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>7740.99</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>7653.6</v>
+      </c>
+      <c r="H162">
+        <v>377.93</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>6229</v>
       </c>
@@ -2681,13 +4637,25 @@
         <v>109508.18</v>
       </c>
       <c r="C163">
+        <v>63.09</v>
+      </c>
+      <c r="D163">
         <v>29632.880000000001</v>
       </c>
-      <c r="D163">
+      <c r="E163">
         <v>20143.04</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>20055.650000000001</v>
+      </c>
+      <c r="H163">
+        <v>1029.72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>6281</v>
       </c>
@@ -2695,13 +4663,25 @@
         <v>20591.53</v>
       </c>
       <c r="C164">
+        <v>21.89</v>
+      </c>
+      <c r="D164">
         <v>7128.7</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <v>1317.14</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F164">
+        <v>2079.54</v>
+      </c>
+      <c r="G164">
+        <v>1121.29</v>
+      </c>
+      <c r="H164">
+        <v>380.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>6291</v>
       </c>
@@ -2709,13 +4689,25 @@
         <v>140929.95000000001</v>
       </c>
       <c r="C165">
+        <v>80.27</v>
+      </c>
+      <c r="D165">
         <v>37385.980000000003</v>
       </c>
-      <c r="D165">
+      <c r="E165">
         <v>25842.959999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>25755.58</v>
+      </c>
+      <c r="H165">
+        <v>1322.96</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>6343</v>
       </c>
@@ -2723,13 +4715,25 @@
         <v>120810.32</v>
       </c>
       <c r="C166">
+        <v>70.98</v>
+      </c>
+      <c r="D166">
         <v>32455.17</v>
       </c>
-      <c r="D166">
+      <c r="E166">
         <v>22723.26</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>22635.87</v>
+      </c>
+      <c r="H166">
+        <v>1147.49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>6823</v>
       </c>
@@ -2737,13 +4741,25 @@
         <v>1744.27</v>
       </c>
       <c r="C167">
+        <v>11.45</v>
+      </c>
+      <c r="D167">
         <v>1369.26</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>45.05</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F167">
+        <v>794.13</v>
+      </c>
+      <c r="G167">
+        <v>4.78</v>
+      </c>
+      <c r="H167">
+        <v>61.56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>6854</v>
       </c>
@@ -2751,13 +4767,25 @@
         <v>1370.27</v>
       </c>
       <c r="C168">
+        <v>10.53</v>
+      </c>
+      <c r="D168">
         <v>1304.96</v>
       </c>
-      <c r="D168">
+      <c r="E168">
         <v>41.61</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F168">
+        <v>794.53</v>
+      </c>
+      <c r="G168">
+        <v>1.34</v>
+      </c>
+      <c r="H168">
+        <v>64.78</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>6855</v>
       </c>
@@ -2765,13 +4793,25 @@
         <v>579.30999999999995</v>
       </c>
       <c r="C169">
+        <v>15.02</v>
+      </c>
+      <c r="D169">
         <v>613.27</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <v>41.49</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F169">
+        <v>331.67</v>
+      </c>
+      <c r="G169">
+        <v>1.22</v>
+      </c>
+      <c r="H169">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>7043</v>
       </c>
@@ -2779,13 +4819,25 @@
         <v>344360.91</v>
       </c>
       <c r="C170">
+        <v>166.18</v>
+      </c>
+      <c r="D170">
         <v>87481.01</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <v>64208.56</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>64121.17</v>
+      </c>
+      <c r="H170">
+        <v>3180.17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>7192</v>
       </c>
@@ -2793,13 +4845,25 @@
         <v>86599.51</v>
       </c>
       <c r="C171">
+        <v>116.57</v>
+      </c>
+      <c r="D171">
         <v>24242.25</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <v>18783.439999999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>18696.05</v>
+      </c>
+      <c r="H171">
+        <v>909.51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>7196</v>
       </c>
@@ -2807,13 +4871,25 @@
         <v>28315.08</v>
       </c>
       <c r="C172">
+        <v>11.51</v>
+      </c>
+      <c r="D172">
         <v>8789.94</v>
       </c>
-      <c r="D172">
+      <c r="E172">
         <v>2056.3200000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F172">
+        <v>2009.68</v>
+      </c>
+      <c r="G172">
+        <v>1791.36</v>
+      </c>
+      <c r="H172">
+        <v>447.24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>7200</v>
       </c>
@@ -2821,13 +4897,25 @@
         <v>138949.92000000001</v>
       </c>
       <c r="C173">
+        <v>94.73</v>
+      </c>
+      <c r="D173">
         <v>37245.75</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <v>27487.599999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>27400.21</v>
+      </c>
+      <c r="H173">
+        <v>1442.52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>7236</v>
       </c>
@@ -2835,13 +4923,25 @@
         <v>60296.52</v>
       </c>
       <c r="C174">
+        <v>88.59</v>
+      </c>
+      <c r="D174">
         <v>17713.060000000001</v>
       </c>
-      <c r="D174">
+      <c r="E174">
         <v>13230.72</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>13143.33</v>
+      </c>
+      <c r="H174">
+        <v>652.74</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>7239</v>
       </c>
@@ -2849,13 +4949,25 @@
         <v>45468.04</v>
       </c>
       <c r="C175">
+        <v>46.56</v>
+      </c>
+      <c r="D175">
         <v>13925.85</v>
       </c>
-      <c r="D175">
+      <c r="E175">
         <v>9132.8700000000008</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>9045.48</v>
+      </c>
+      <c r="H175">
+        <v>463.81</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>7240</v>
       </c>
@@ -2863,13 +4975,25 @@
         <v>14235.17</v>
       </c>
       <c r="C176">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="D176">
         <v>4733.7700000000004</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>967.4</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F176">
+        <v>1235.6099999999999</v>
+      </c>
+      <c r="G176">
+        <v>827.82</v>
+      </c>
+      <c r="H176">
+        <v>246.41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>7254</v>
       </c>
@@ -2877,13 +5001,25 @@
         <v>39508.94</v>
       </c>
       <c r="C177">
+        <v>44.02</v>
+      </c>
+      <c r="D177">
         <v>12503.16</v>
       </c>
-      <c r="D177">
+      <c r="E177">
         <v>9496</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>9408.6200000000008</v>
+      </c>
+      <c r="H177">
+        <v>421.65</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>7297</v>
       </c>
@@ -2891,13 +5027,25 @@
         <v>82099.27</v>
       </c>
       <c r="C178">
+        <v>44.64</v>
+      </c>
+      <c r="D178">
         <v>23013.01</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <v>15485.86</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>15398.47</v>
+      </c>
+      <c r="H178">
+        <v>831.41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>7319</v>
       </c>
@@ -2905,13 +5053,25 @@
         <v>83361.25</v>
       </c>
       <c r="C179">
+        <v>39.369999999999997</v>
+      </c>
+      <c r="D179">
         <v>23317.08</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <v>16723.05</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>16635.669999999998</v>
+      </c>
+      <c r="H179">
+        <v>835.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>7336</v>
       </c>
@@ -2919,13 +5079,25 @@
         <v>171187.34</v>
       </c>
       <c r="C180">
+        <v>49.8</v>
+      </c>
+      <c r="D180">
         <v>44880.81</v>
       </c>
-      <c r="D180">
+      <c r="E180">
         <v>33172.81</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>33085.42</v>
+      </c>
+      <c r="H180">
+        <v>1612.75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>8063</v>
       </c>
@@ -2933,13 +5105,25 @@
         <v>52113.85</v>
       </c>
       <c r="C181">
+        <v>94.58</v>
+      </c>
+      <c r="D181">
         <v>15690.42</v>
       </c>
-      <c r="D181">
+      <c r="E181">
         <v>12065</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>11977.61</v>
+      </c>
+      <c r="H181">
+        <v>572.51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>8117</v>
       </c>
@@ -2947,13 +5131,25 @@
         <v>24590.49</v>
       </c>
       <c r="C182">
+        <v>38.85</v>
+      </c>
+      <c r="D182">
         <v>8817.2099999999991</v>
       </c>
-      <c r="D182">
+      <c r="E182">
         <v>5585.34</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>5497.96</v>
+      </c>
+      <c r="H182">
+        <v>264.73</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>8330</v>
       </c>
@@ -2961,13 +5157,25 @@
         <v>54489.63</v>
       </c>
       <c r="C183">
+        <v>49.71</v>
+      </c>
+      <c r="D183">
         <v>16149.75</v>
       </c>
-      <c r="D183">
+      <c r="E183">
         <v>10865.43</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>10778.05</v>
+      </c>
+      <c r="H183">
+        <v>547.17999999999995</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>8340</v>
       </c>
@@ -2975,13 +5183,25 @@
         <v>2521.9699999999998</v>
       </c>
       <c r="C184">
+        <v>10.44</v>
+      </c>
+      <c r="D184">
         <v>2207.48</v>
       </c>
-      <c r="D184">
+      <c r="E184">
         <v>44.67</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F184">
+        <v>1352.73</v>
+      </c>
+      <c r="G184">
+        <v>3.12</v>
+      </c>
+      <c r="H184">
+        <v>126.52</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>8398</v>
       </c>
@@ -2989,13 +5209,25 @@
         <v>38841.21</v>
       </c>
       <c r="C185">
+        <v>34.21</v>
+      </c>
+      <c r="D185">
         <v>12264.66</v>
       </c>
-      <c r="D185">
+      <c r="E185">
         <v>7586.01</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>7498.62</v>
+      </c>
+      <c r="H185">
+        <v>395.36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>8402</v>
       </c>
@@ -3003,13 +5235,25 @@
         <v>114271.93</v>
       </c>
       <c r="C186">
+        <v>158.01</v>
+      </c>
+      <c r="D186">
         <v>31227.26</v>
       </c>
-      <c r="D186">
+      <c r="E186">
         <v>25246.74</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>25159.35</v>
+      </c>
+      <c r="H186">
+        <v>1230.76</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>8403</v>
       </c>
@@ -3017,13 +5261,25 @@
         <v>72397.38</v>
       </c>
       <c r="C187">
+        <v>117.64</v>
+      </c>
+      <c r="D187">
         <v>20834.189999999999</v>
       </c>
-      <c r="D187">
+      <c r="E187">
         <v>17023.34</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>16935.96</v>
+      </c>
+      <c r="H187">
+        <v>816.79</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>8440</v>
       </c>
@@ -3031,13 +5287,25 @@
         <v>179723.14</v>
       </c>
       <c r="C188">
+        <v>91.13</v>
+      </c>
+      <c r="D188">
         <v>46899.25</v>
       </c>
-      <c r="D188">
+      <c r="E188">
         <v>32192.35</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>32104.959999999999</v>
+      </c>
+      <c r="H188">
+        <v>1666.78</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>8472</v>
       </c>
@@ -3045,13 +5313,25 @@
         <v>125306.64</v>
       </c>
       <c r="C189">
+        <v>60.74</v>
+      </c>
+      <c r="D189">
         <v>33495.379999999997</v>
       </c>
-      <c r="D189">
+      <c r="E189">
         <v>22400.94</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>22313.55</v>
+      </c>
+      <c r="H189">
+        <v>1166.19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>8487</v>
       </c>
@@ -3059,13 +5339,25 @@
         <v>214475.04</v>
       </c>
       <c r="C190">
+        <v>96.6</v>
+      </c>
+      <c r="D190">
         <v>55428.54</v>
       </c>
-      <c r="D190">
+      <c r="E190">
         <v>38492.58</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>38405.19</v>
+      </c>
+      <c r="H190">
+        <v>1975.12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>8495</v>
       </c>
@@ -3073,13 +5365,25 @@
         <v>139.96</v>
       </c>
       <c r="C191">
+        <v>3.41</v>
+      </c>
+      <c r="D191">
         <v>243.94</v>
       </c>
-      <c r="D191">
+      <c r="E191">
         <v>40.42</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F191">
+        <v>91.28</v>
+      </c>
+      <c r="G191">
+        <v>0.15</v>
+      </c>
+      <c r="H191">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>8547</v>
       </c>
@@ -3087,13 +5391,25 @@
         <v>2985.71</v>
       </c>
       <c r="C192">
+        <v>10.02</v>
+      </c>
+      <c r="D192">
         <v>2370.62</v>
       </c>
-      <c r="D192">
+      <c r="E192">
         <v>50.17</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F192">
+        <v>1401.1</v>
+      </c>
+      <c r="G192">
+        <v>6.22</v>
+      </c>
+      <c r="H192">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>9170</v>
       </c>
@@ -3101,13 +5417,25 @@
         <v>68363.899999999994</v>
       </c>
       <c r="C193">
+        <v>72.33</v>
+      </c>
+      <c r="D193">
         <v>19611.73</v>
       </c>
-      <c r="D193">
+      <c r="E193">
         <v>13866.29</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>13778.9</v>
+      </c>
+      <c r="H193">
+        <v>691.68</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>9182</v>
       </c>
@@ -3115,13 +5443,25 @@
         <v>205939.86</v>
       </c>
       <c r="C194">
+        <v>120.41</v>
+      </c>
+      <c r="D194">
         <v>53458.92</v>
       </c>
-      <c r="D194">
+      <c r="E194">
         <v>38790.949999999997</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>38703.56</v>
+      </c>
+      <c r="H194">
+        <v>1943.16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>9193</v>
       </c>
@@ -3129,13 +5469,25 @@
         <v>451433.65</v>
       </c>
       <c r="C195">
+        <v>135.97</v>
+      </c>
+      <c r="D195">
         <v>113547.33</v>
       </c>
-      <c r="D195">
+      <c r="E195">
         <v>75433.94</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>75346.559999999998</v>
+      </c>
+      <c r="H195">
+        <v>4082.33</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>9208</v>
       </c>
@@ -3143,13 +5495,25 @@
         <v>15686.07</v>
       </c>
       <c r="C196">
+        <v>41.32</v>
+      </c>
+      <c r="D196">
         <v>6645.97</v>
       </c>
-      <c r="D196">
+      <c r="E196">
         <v>3982.9</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>3895.51</v>
+      </c>
+      <c r="H196">
+        <v>208.73</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>9225</v>
       </c>
@@ -3157,13 +5521,25 @@
         <v>83256.509999999995</v>
       </c>
       <c r="C197">
+        <v>43.86</v>
+      </c>
+      <c r="D197">
         <v>23151</v>
       </c>
-      <c r="D197">
+      <c r="E197">
         <v>15104.19</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>15016.8</v>
+      </c>
+      <c r="H197">
+        <v>784.21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>9253</v>
       </c>
@@ -3171,13 +5547,25 @@
         <v>35258.339999999997</v>
       </c>
       <c r="C198">
+        <v>33.33</v>
+      </c>
+      <c r="D198">
         <v>11382.74</v>
       </c>
-      <c r="D198">
+      <c r="E198">
         <v>6946.9</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>6859.51</v>
+      </c>
+      <c r="H198">
+        <v>362.03</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>9256</v>
       </c>
@@ -3185,13 +5573,25 @@
         <v>21696.94</v>
       </c>
       <c r="C199">
+        <v>25.97</v>
+      </c>
+      <c r="D199">
         <v>8080.56</v>
       </c>
-      <c r="D199">
+      <c r="E199">
         <v>4571.57</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>4484.1899999999996</v>
+      </c>
+      <c r="H199">
+        <v>232.56</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>9257</v>
       </c>
@@ -3199,13 +5599,25 @@
         <v>120683.73</v>
       </c>
       <c r="C200">
+        <v>96.17</v>
+      </c>
+      <c r="D200">
         <v>32499.72</v>
       </c>
-      <c r="D200">
+      <c r="E200">
         <v>23167.68</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>23080.3</v>
+      </c>
+      <c r="H200">
+        <v>1173.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>9259</v>
       </c>
@@ -3213,13 +5625,25 @@
         <v>78638.039999999994</v>
       </c>
       <c r="C201">
+        <v>109.45</v>
+      </c>
+      <c r="D201">
         <v>22268.01</v>
       </c>
-      <c r="D201">
+      <c r="E201">
         <v>16941.400000000001</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>16854.02</v>
+      </c>
+      <c r="H201">
+        <v>833.68</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>9307</v>
       </c>
@@ -3227,13 +5651,25 @@
         <v>203684.76</v>
       </c>
       <c r="C202">
+        <v>58.78</v>
+      </c>
+      <c r="D202">
         <v>52694.04</v>
       </c>
-      <c r="D202">
+      <c r="E202">
         <v>34148.269999999997</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>34060.879999999997</v>
+      </c>
+      <c r="H202">
+        <v>1855.74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>9321</v>
       </c>
@@ -3241,13 +5677,25 @@
         <v>41400.67</v>
       </c>
       <c r="C203">
+        <v>16.03</v>
+      </c>
+      <c r="D203">
         <v>13774.75</v>
       </c>
-      <c r="D203">
+      <c r="E203">
         <v>2699.32</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F203">
+        <v>3820.59</v>
+      </c>
+      <c r="G203">
+        <v>2319.7399999999998</v>
+      </c>
+      <c r="H203">
+        <v>684.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>9325</v>
       </c>
@@ -3255,13 +5703,25 @@
         <v>149309.94</v>
       </c>
       <c r="C204">
+        <v>67.37</v>
+      </c>
+      <c r="D204">
         <v>39552.85</v>
       </c>
-      <c r="D204">
+      <c r="E204">
         <v>26561.98</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>26474.59</v>
+      </c>
+      <c r="H204">
+        <v>1447.55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>9420</v>
       </c>
@@ -3269,13 +5729,25 @@
         <v>189.07</v>
       </c>
       <c r="C205">
+        <v>3.48</v>
+      </c>
+      <c r="D205">
         <v>275.39</v>
       </c>
-      <c r="D205">
+      <c r="E205">
         <v>40.549999999999997</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F205">
+        <v>108.39</v>
+      </c>
+      <c r="G205">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H205">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>9535</v>
       </c>
@@ -3283,13 +5755,25 @@
         <v>1996.72</v>
       </c>
       <c r="C206">
+        <v>6.34</v>
+      </c>
+      <c r="D206">
         <v>1002.64</v>
       </c>
-      <c r="D206">
+      <c r="E206">
         <v>99.09</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F206">
+        <v>397.27</v>
+      </c>
+      <c r="G206">
+        <v>58.82</v>
+      </c>
+      <c r="H206">
+        <v>46.12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>9567</v>
       </c>
@@ -3297,13 +5781,25 @@
         <v>800.43</v>
       </c>
       <c r="C207">
+        <v>4.8</v>
+      </c>
+      <c r="D207">
         <v>511.14</v>
       </c>
-      <c r="D207">
+      <c r="E207">
         <v>54.54</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F207">
+        <v>204.2</v>
+      </c>
+      <c r="G207">
+        <v>14.27</v>
+      </c>
+      <c r="H207">
+        <v>19.88</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>9601</v>
       </c>
@@ -3311,13 +5807,25 @@
         <v>209583.13</v>
       </c>
       <c r="C208">
+        <v>123.25</v>
+      </c>
+      <c r="D208">
         <v>54282.21</v>
       </c>
-      <c r="D208">
+      <c r="E208">
         <v>38434.36</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>38346.980000000003</v>
+      </c>
+      <c r="H208">
+        <v>1950.12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>9604</v>
       </c>
@@ -3325,13 +5833,25 @@
         <v>7713.67</v>
       </c>
       <c r="C209">
+        <v>36.85</v>
+      </c>
+      <c r="D209">
         <v>4692.32</v>
       </c>
-      <c r="D209">
+      <c r="E209">
         <v>2806.33</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>2718.95</v>
+      </c>
+      <c r="H209">
+        <v>139.66</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>9608</v>
       </c>
@@ -3339,13 +5859,25 @@
         <v>80476.08</v>
       </c>
       <c r="C210">
+        <v>53.99</v>
+      </c>
+      <c r="D210">
         <v>22594.9</v>
       </c>
-      <c r="D210">
+      <c r="E210">
         <v>17496.16</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>17408.78</v>
+      </c>
+      <c r="H210">
+        <v>799.12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>9610</v>
       </c>
@@ -3353,13 +5885,25 @@
         <v>69696.39</v>
       </c>
       <c r="C211">
+        <v>95.8</v>
+      </c>
+      <c r="D211">
         <v>20057.34</v>
       </c>
-      <c r="D211">
+      <c r="E211">
         <v>15136.71</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>15049.33</v>
+      </c>
+      <c r="H211">
+        <v>749.47</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>9620</v>
       </c>
@@ -3367,13 +5911,25 @@
         <v>76241.89</v>
       </c>
       <c r="C212">
+        <v>79.75</v>
+      </c>
+      <c r="D212">
         <v>21586.47</v>
       </c>
-      <c r="D212">
+      <c r="E212">
         <v>15427.74</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>15340.35</v>
+      </c>
+      <c r="H212">
+        <v>777.88</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>9623</v>
       </c>
@@ -3381,13 +5937,25 @@
         <v>75559.13</v>
       </c>
       <c r="C213">
+        <v>54.18</v>
+      </c>
+      <c r="D213">
         <v>21308.63</v>
       </c>
-      <c r="D213">
+      <c r="E213">
         <v>14154.91</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>14067.53</v>
+      </c>
+      <c r="H213">
+        <v>731.63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>9625</v>
       </c>
@@ -3395,13 +5963,25 @@
         <v>20465.59</v>
       </c>
       <c r="C214">
+        <v>62.4</v>
+      </c>
+      <c r="D214">
         <v>7953.45</v>
       </c>
-      <c r="D214">
+      <c r="E214">
         <v>5971.01</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>5883.63</v>
+      </c>
+      <c r="H214">
+        <v>284.20999999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>9655</v>
       </c>
@@ -3409,13 +5989,25 @@
         <v>21747.439999999999</v>
       </c>
       <c r="C215">
+        <v>43.73</v>
+      </c>
+      <c r="D215">
         <v>8187.78</v>
       </c>
-      <c r="D215">
+      <c r="E215">
         <v>5419.9</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>5332.51</v>
+      </c>
+      <c r="H215">
+        <v>266.98</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>9776</v>
       </c>
@@ -3423,13 +6015,25 @@
         <v>46534.27</v>
       </c>
       <c r="C216">
+        <v>106.63</v>
+      </c>
+      <c r="D216">
         <v>14405.62</v>
       </c>
-      <c r="D216">
+      <c r="E216">
         <v>12015.66</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>11928.27</v>
+      </c>
+      <c r="H216">
+        <v>555.42999999999995</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>9923</v>
       </c>
@@ -3437,13 +6041,25 @@
         <v>128864.61</v>
       </c>
       <c r="C217">
+        <v>78.23</v>
+      </c>
+      <c r="D217">
         <v>34513.83</v>
       </c>
-      <c r="D217">
+      <c r="E217">
         <v>23603</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>23515.62</v>
+      </c>
+      <c r="H217">
+        <v>1253.93</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>10102</v>
       </c>
@@ -3451,13 +6067,25 @@
         <v>318953.75</v>
       </c>
       <c r="C218">
+        <v>125.31</v>
+      </c>
+      <c r="D218">
         <v>81218.16</v>
       </c>
-      <c r="D218">
+      <c r="E218">
         <v>54278.46</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>54191.07</v>
+      </c>
+      <c r="H218">
+        <v>2976.99</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>10105</v>
       </c>
@@ -3465,13 +6093,25 @@
         <v>140599.95000000001</v>
       </c>
       <c r="C219">
+        <v>123.32</v>
+      </c>
+      <c r="D219">
         <v>37497.9</v>
       </c>
-      <c r="D219">
+      <c r="E219">
         <v>27873.98</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>27786.59</v>
+      </c>
+      <c r="H219">
+        <v>1388.86</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>10108</v>
       </c>
@@ -3479,13 +6119,25 @@
         <v>57755.42</v>
       </c>
       <c r="C220">
+        <v>30.27</v>
+      </c>
+      <c r="D220">
         <v>16869.810000000001</v>
       </c>
-      <c r="D220">
+      <c r="E220">
         <v>10622.87</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>10535.48</v>
+      </c>
+      <c r="H220">
+        <v>546.58000000000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>10119</v>
       </c>
@@ -3493,13 +6145,25 @@
         <v>46754.14</v>
       </c>
       <c r="C221">
+        <v>106.4</v>
+      </c>
+      <c r="D221">
         <v>14518.16</v>
       </c>
-      <c r="D221">
+      <c r="E221">
         <v>12130.47</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>12043.09</v>
+      </c>
+      <c r="H221">
+        <v>581.69000000000005</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>10121</v>
       </c>
@@ -3507,13 +6171,25 @@
         <v>129451.4</v>
       </c>
       <c r="C222">
+        <v>155.9</v>
+      </c>
+      <c r="D222">
         <v>34904.080000000002</v>
       </c>
-      <c r="D222">
+      <c r="E222">
         <v>28358.639999999999</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>28271.25</v>
+      </c>
+      <c r="H222">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>10141</v>
       </c>
@@ -3521,13 +6197,25 @@
         <v>99586.96</v>
       </c>
       <c r="C223">
+        <v>129.13999999999999</v>
+      </c>
+      <c r="D223">
         <v>27504.3</v>
       </c>
-      <c r="D223">
+      <c r="E223">
         <v>21696.3</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>21608.91</v>
+      </c>
+      <c r="H223">
+        <v>1053.93</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>10151</v>
       </c>
@@ -3535,13 +6223,25 @@
         <v>25331.57</v>
       </c>
       <c r="C224">
+        <v>45.31</v>
+      </c>
+      <c r="D224">
         <v>8987.59</v>
       </c>
-      <c r="D224">
+      <c r="E224">
         <v>6002.86</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>5915.48</v>
+      </c>
+      <c r="H224">
+        <v>288.66000000000003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>10153</v>
       </c>
@@ -3549,13 +6249,25 @@
         <v>83576.039999999994</v>
       </c>
       <c r="C225">
+        <v>71.72</v>
+      </c>
+      <c r="D225">
         <v>23343.77</v>
       </c>
-      <c r="D225">
+      <c r="E225">
         <v>16138.29</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>16050.91</v>
+      </c>
+      <c r="H225">
+        <v>828.81</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>10157</v>
       </c>
@@ -3563,13 +6275,25 @@
         <v>283570.83</v>
       </c>
       <c r="C226">
+        <v>171.1</v>
+      </c>
+      <c r="D226">
         <v>72611.490000000005</v>
       </c>
-      <c r="D226">
+      <c r="E226">
         <v>54597.33</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>54509.94</v>
+      </c>
+      <c r="H226">
+        <v>2661.24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>10182</v>
       </c>
@@ -3577,13 +6301,25 @@
         <v>62671.56</v>
       </c>
       <c r="C227">
+        <v>38.32</v>
+      </c>
+      <c r="D227">
         <v>18216.7</v>
       </c>
-      <c r="D227">
+      <c r="E227">
         <v>11887.91</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>11800.52</v>
+      </c>
+      <c r="H227">
+        <v>647.77</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>10183</v>
       </c>
@@ -3591,13 +6327,25 @@
         <v>105737.46</v>
       </c>
       <c r="C228">
+        <v>117.11</v>
+      </c>
+      <c r="D228">
         <v>28953.65</v>
       </c>
-      <c r="D228">
+      <c r="E228">
         <v>21862.98</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>21775.59</v>
+      </c>
+      <c r="H228">
+        <v>1085.03</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>10231</v>
       </c>
@@ -3605,13 +6353,25 @@
         <v>200254.52</v>
       </c>
       <c r="C229">
+        <v>50.16</v>
+      </c>
+      <c r="D229">
         <v>51789.75</v>
       </c>
-      <c r="D229">
+      <c r="E229">
         <v>33718.83</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>33631.440000000002</v>
+      </c>
+      <c r="H229">
+        <v>1793.78</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>10250</v>
       </c>
@@ -3619,13 +6379,25 @@
         <v>40985.160000000003</v>
       </c>
       <c r="C230">
+        <v>79.17</v>
+      </c>
+      <c r="D230">
         <v>12896.09</v>
       </c>
-      <c r="D230">
+      <c r="E230">
         <v>10013.209999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>9925.83</v>
+      </c>
+      <c r="H230">
+        <v>446.31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>10279</v>
       </c>
@@ -3633,13 +6405,25 @@
         <v>110945.16</v>
       </c>
       <c r="C231">
+        <v>51.39</v>
+      </c>
+      <c r="D231">
         <v>30121.29</v>
       </c>
-      <c r="D231">
+      <c r="E231">
         <v>21104.69</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>21017.31</v>
+      </c>
+      <c r="H231">
+        <v>1093.1300000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>10858</v>
       </c>
@@ -3647,13 +6431,25 @@
         <v>3192.38</v>
       </c>
       <c r="C232">
+        <v>11.18</v>
+      </c>
+      <c r="D232">
         <v>2245.14</v>
       </c>
-      <c r="D232">
+      <c r="E232">
         <v>58.92</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F232">
+        <v>1263.58</v>
+      </c>
+      <c r="G232">
+        <v>13.6</v>
+      </c>
+      <c r="H232">
+        <v>116.03</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>10951</v>
       </c>
@@ -3661,13 +6457,25 @@
         <v>56931.09</v>
       </c>
       <c r="C233">
+        <v>102.52</v>
+      </c>
+      <c r="D233">
         <v>16955.46</v>
       </c>
-      <c r="D233">
+      <c r="E233">
         <v>13332.39</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>13245.01</v>
+      </c>
+      <c r="H233">
+        <v>648.78</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>10952</v>
       </c>
@@ -3675,13 +6483,25 @@
         <v>190733.77</v>
       </c>
       <c r="C234">
+        <v>114.96</v>
+      </c>
+      <c r="D234">
         <v>49690.93</v>
       </c>
-      <c r="D234">
+      <c r="E234">
         <v>35764.629999999997</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>35677.25</v>
+      </c>
+      <c r="H234">
+        <v>1792.38</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>10953</v>
       </c>
@@ -3689,13 +6509,25 @@
         <v>127012.85</v>
       </c>
       <c r="C235">
+        <v>80.56</v>
+      </c>
+      <c r="D235">
         <v>33984.239999999998</v>
       </c>
-      <c r="D235">
+      <c r="E235">
         <v>23991.919999999998</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>23904.53</v>
+      </c>
+      <c r="H235">
+        <v>1202.1500000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>10954</v>
       </c>
@@ -3703,13 +6535,25 @@
         <v>121372.19</v>
       </c>
       <c r="C236">
+        <v>147.32</v>
+      </c>
+      <c r="D236">
         <v>32896.9</v>
       </c>
-      <c r="D236">
+      <c r="E236">
         <v>26542.9</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>26455.52</v>
+      </c>
+      <c r="H236">
+        <v>1258.8499999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>10955</v>
       </c>
@@ -3717,13 +6561,25 @@
         <v>69136.61</v>
       </c>
       <c r="C237">
+        <v>60.44</v>
+      </c>
+      <c r="D237">
         <v>19759.55</v>
       </c>
-      <c r="D237">
+      <c r="E237">
         <v>13510.03</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>13422.65</v>
+      </c>
+      <c r="H237">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>10957</v>
       </c>
@@ -3731,13 +6587,25 @@
         <v>86718.57</v>
       </c>
       <c r="C238">
+        <v>137.72</v>
+      </c>
+      <c r="D238">
         <v>24398.27</v>
       </c>
-      <c r="D238">
+      <c r="E238">
         <v>19949.86</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>19862.48</v>
+      </c>
+      <c r="H238">
+        <v>961.99</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>10967</v>
       </c>
@@ -3745,13 +6613,25 @@
         <v>195468.37</v>
       </c>
       <c r="C239">
+        <v>148.38999999999999</v>
+      </c>
+      <c r="D239">
         <v>51001.05</v>
       </c>
-      <c r="D239">
+      <c r="E239">
         <v>39070.78</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>38983.39</v>
+      </c>
+      <c r="H239">
+        <v>1882.9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>11140</v>
       </c>
@@ -3759,13 +6639,25 @@
         <v>280.99</v>
       </c>
       <c r="C240">
+        <v>5.01</v>
+      </c>
+      <c r="D240">
         <v>304.32</v>
       </c>
-      <c r="D240">
+      <c r="E240">
         <v>41.73</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F240">
+        <v>117.82</v>
+      </c>
+      <c r="G240">
+        <v>1.46</v>
+      </c>
+      <c r="H240">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>11484</v>
       </c>
@@ -3773,13 +6665,25 @@
         <v>3221.58</v>
       </c>
       <c r="C241">
+        <v>11.57</v>
+      </c>
+      <c r="D241">
         <v>2144.17</v>
       </c>
-      <c r="D241">
+      <c r="E241">
         <v>64.14</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F241">
+        <v>1161.48</v>
+      </c>
+      <c r="G241">
+        <v>18.61</v>
+      </c>
+      <c r="H241">
+        <v>113.76</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>11550</v>
       </c>
@@ -3787,13 +6691,25 @@
         <v>124467.94</v>
       </c>
       <c r="C242">
+        <v>145.66999999999999</v>
+      </c>
+      <c r="D242">
         <v>33594.199999999997</v>
       </c>
-      <c r="D242">
+      <c r="E242">
         <v>26145.919999999998</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>26058.53</v>
+      </c>
+      <c r="H242">
+        <v>1263.3399999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>11581</v>
       </c>
@@ -3801,13 +6717,25 @@
         <v>96930.51</v>
       </c>
       <c r="C243">
+        <v>54.52</v>
+      </c>
+      <c r="D243">
         <v>26612.79</v>
       </c>
-      <c r="D243">
+      <c r="E243">
         <v>17626.490000000002</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>17539.11</v>
+      </c>
+      <c r="H243">
+        <v>942.27</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>11586</v>
       </c>
@@ -3815,13 +6743,25 @@
         <v>98999.61</v>
       </c>
       <c r="C244">
+        <v>57.52</v>
+      </c>
+      <c r="D244">
         <v>27137.02</v>
       </c>
-      <c r="D244">
+      <c r="E244">
         <v>18124.68</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>18037.29</v>
+      </c>
+      <c r="H244">
+        <v>968.43</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>11606</v>
       </c>
@@ -3829,13 +6769,25 @@
         <v>224363.03</v>
       </c>
       <c r="C245">
+        <v>64.66</v>
+      </c>
+      <c r="D245">
         <v>57765.52</v>
       </c>
-      <c r="D245">
+      <c r="E245">
         <v>38830.46</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>38743.08</v>
+      </c>
+      <c r="H245">
+        <v>2024.75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>11608</v>
       </c>
@@ -3843,13 +6795,25 @@
         <v>99566.99</v>
       </c>
       <c r="C246">
+        <v>110.35</v>
+      </c>
+      <c r="D246">
         <v>27409.08</v>
       </c>
-      <c r="D246">
+      <c r="E246">
         <v>20910.2</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>20822.82</v>
+      </c>
+      <c r="H246">
+        <v>1017.86</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>11619</v>
       </c>
@@ -3857,13 +6821,25 @@
         <v>85582.76</v>
       </c>
       <c r="C247">
+        <v>46.25</v>
+      </c>
+      <c r="D247">
         <v>23744.18</v>
       </c>
-      <c r="D247">
+      <c r="E247">
         <v>16189.23</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>16101.85</v>
+      </c>
+      <c r="H247">
+        <v>807.4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>11632</v>
       </c>
@@ -3871,13 +6847,25 @@
         <v>141825.49</v>
       </c>
       <c r="C248">
+        <v>76.62</v>
+      </c>
+      <c r="D248">
         <v>37601.06</v>
       </c>
-      <c r="D248">
+      <c r="E248">
         <v>26195.15</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>26107.759999999998</v>
+      </c>
+      <c r="H248">
+        <v>1327.21</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>11634</v>
       </c>
@@ -3885,13 +6873,25 @@
         <v>71381</v>
       </c>
       <c r="C249">
+        <v>112.93</v>
+      </c>
+      <c r="D249">
         <v>20525.32</v>
       </c>
-      <c r="D249">
+      <c r="E249">
         <v>16261.46</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>16174.07</v>
+      </c>
+      <c r="H249">
+        <v>783.74</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>11637</v>
       </c>
@@ -3899,13 +6899,25 @@
         <v>140876.45000000001</v>
       </c>
       <c r="C250">
+        <v>54.81</v>
+      </c>
+      <c r="D250">
         <v>37462.79</v>
       </c>
-      <c r="D250">
+      <c r="E250">
         <v>27486.57</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>27399.18</v>
+      </c>
+      <c r="H250">
+        <v>1352.05</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>11640</v>
       </c>
@@ -3913,13 +6925,25 @@
         <v>37398.57</v>
       </c>
       <c r="C251">
+        <v>79.5</v>
+      </c>
+      <c r="D251">
         <v>12107.98</v>
       </c>
-      <c r="D251">
+      <c r="E251">
         <v>9371.2000000000007</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>9283.82</v>
+      </c>
+      <c r="H251">
+        <v>453.77</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>11677</v>
       </c>
@@ -3927,13 +6951,25 @@
         <v>208116.18</v>
       </c>
       <c r="C252">
+        <v>86.31</v>
+      </c>
+      <c r="D252">
         <v>53984.22</v>
       </c>
-      <c r="D252">
+      <c r="E252">
         <v>36206.870000000003</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>36119.480000000003</v>
+      </c>
+      <c r="H252">
+        <v>1973.46</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>11678</v>
       </c>
@@ -3941,13 +6977,25 @@
         <v>16613.54</v>
       </c>
       <c r="C253">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="D253">
         <v>6916</v>
       </c>
-      <c r="D253">
+      <c r="E253">
         <v>4285.57</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>4198.1899999999996</v>
+      </c>
+      <c r="H253">
+        <v>233.65</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>11682</v>
       </c>
@@ -3955,13 +7003,25 @@
         <v>74513.09</v>
       </c>
       <c r="C254">
+        <v>67.91</v>
+      </c>
+      <c r="D254">
         <v>21145.1</v>
       </c>
-      <c r="D254">
+      <c r="E254">
         <v>15533.49</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>15446.11</v>
+      </c>
+      <c r="H254">
+        <v>753.59</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>11851</v>
       </c>
@@ -3969,13 +7029,25 @@
         <v>122.03</v>
       </c>
       <c r="C255">
+        <v>5.99</v>
+      </c>
+      <c r="D255">
         <v>252.2</v>
       </c>
-      <c r="D255">
+      <c r="E255">
         <v>40.35</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F255">
+        <v>100.1</v>
+      </c>
+      <c r="G255">
+        <v>0.08</v>
+      </c>
+      <c r="H255">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>11967</v>
       </c>
@@ -3983,13 +7055,25 @@
         <v>148.19</v>
       </c>
       <c r="C256">
+        <v>4.22</v>
+      </c>
+      <c r="D256">
         <v>281.51</v>
       </c>
-      <c r="D256">
+      <c r="E256">
         <v>40.32</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F256">
+        <v>121.08</v>
+      </c>
+      <c r="G256">
+        <v>0.05</v>
+      </c>
+      <c r="H256">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>12017</v>
       </c>
@@ -3997,13 +7081,25 @@
         <v>193.29</v>
       </c>
       <c r="C257">
+        <v>2.79</v>
+      </c>
+      <c r="D257">
         <v>250.02</v>
       </c>
-      <c r="D257">
+      <c r="E257">
         <v>40.96</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F257">
+        <v>86.02</v>
+      </c>
+      <c r="G257">
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="H257">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>12377</v>
       </c>
@@ -4011,13 +7107,25 @@
         <v>139.38</v>
       </c>
       <c r="C258">
+        <v>3.39</v>
+      </c>
+      <c r="D258">
         <v>260.05</v>
       </c>
-      <c r="D258">
+      <c r="E258">
         <v>40.33</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F258">
+        <v>103.62</v>
+      </c>
+      <c r="G258">
+        <v>0.06</v>
+      </c>
+      <c r="H258">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>12571</v>
       </c>
@@ -4025,13 +7133,25 @@
         <v>107374.93</v>
       </c>
       <c r="C259">
+        <v>65.67</v>
+      </c>
+      <c r="D259">
         <v>29283.26</v>
       </c>
-      <c r="D259">
+      <c r="E259">
         <v>24911.35</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>24823.97</v>
+      </c>
+      <c r="H259">
+        <v>1053.22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>12579</v>
       </c>
@@ -4039,13 +7159,25 @@
         <v>822.41</v>
       </c>
       <c r="C260">
+        <v>3.13</v>
+      </c>
+      <c r="D260">
         <v>648.08000000000004</v>
       </c>
-      <c r="D260">
+      <c r="E260">
         <v>45.36</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F260">
+        <v>333.36</v>
+      </c>
+      <c r="G260">
+        <v>5.09</v>
+      </c>
+      <c r="H260">
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>12584</v>
       </c>
@@ -4053,13 +7185,25 @@
         <v>600.72</v>
       </c>
       <c r="C261">
+        <v>2.82</v>
+      </c>
+      <c r="D261">
         <v>449.47</v>
       </c>
-      <c r="D261">
+      <c r="E261">
         <v>46.99</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F261">
+        <v>192.13</v>
+      </c>
+      <c r="G261">
+        <v>6.72</v>
+      </c>
+      <c r="H261">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>12593</v>
       </c>
@@ -4067,13 +7211,25 @@
         <v>107576.88</v>
       </c>
       <c r="C262">
+        <v>56.73</v>
+      </c>
+      <c r="D262">
         <v>29143.34</v>
       </c>
-      <c r="D262">
+      <c r="E262">
         <v>19733.740000000002</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>19646.349999999999</v>
+      </c>
+      <c r="H262">
+        <v>1006.53</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>12604</v>
       </c>
@@ -4081,13 +7237,25 @@
         <v>76629.56</v>
       </c>
       <c r="C263">
+        <v>87.59</v>
+      </c>
+      <c r="D263">
         <v>21715.48</v>
       </c>
-      <c r="D263">
+      <c r="E263">
         <v>15776.72</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>15689.33</v>
+      </c>
+      <c r="H263">
+        <v>794.33</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>13129</v>
       </c>
@@ -4095,13 +7263,25 @@
         <v>226461.59</v>
       </c>
       <c r="C264">
+        <v>177.85</v>
+      </c>
+      <c r="D264">
         <v>58653.760000000002</v>
       </c>
-      <c r="D264">
+      <c r="E264">
         <v>45019.199999999997</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>44931.81</v>
+      </c>
+      <c r="H264">
+        <v>2164.7399999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>13173</v>
       </c>
@@ -4109,13 +7289,25 @@
         <v>117565.58</v>
       </c>
       <c r="C265">
+        <v>123.43</v>
+      </c>
+      <c r="D265">
         <v>31826.400000000001</v>
       </c>
-      <c r="D265">
+      <c r="E265">
         <v>24239.95</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>24152.57</v>
+      </c>
+      <c r="H265">
+        <v>1173.6500000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>13200</v>
       </c>
@@ -4123,13 +7315,25 @@
         <v>194906.56</v>
       </c>
       <c r="C266">
+        <v>51.61</v>
+      </c>
+      <c r="D266">
         <v>50423.41</v>
       </c>
-      <c r="D266">
+      <c r="E266">
         <v>30725.37</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>30637.99</v>
+      </c>
+      <c r="H266">
+        <v>1729.97</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>13202</v>
       </c>
@@ -4137,13 +7341,25 @@
         <v>45381.440000000002</v>
       </c>
       <c r="C267">
+        <v>24.74</v>
+      </c>
+      <c r="D267">
         <v>14776.72</v>
       </c>
-      <c r="D267">
+      <c r="E267">
         <v>3041.25</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F267">
+        <v>3869.07</v>
+      </c>
+      <c r="G267">
+        <v>2630.75</v>
+      </c>
+      <c r="H267">
+        <v>770.96</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>13206</v>
       </c>
@@ -4151,13 +7367,25 @@
         <v>176447.4</v>
       </c>
       <c r="C268">
+        <v>92.04</v>
+      </c>
+      <c r="D268">
         <v>46310.76</v>
       </c>
-      <c r="D268">
+      <c r="E268">
         <v>32351.99</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>32264.6</v>
+      </c>
+      <c r="H268">
+        <v>1712.35</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>13227</v>
       </c>
@@ -4165,13 +7393,25 @@
         <v>27380.62</v>
       </c>
       <c r="C269">
+        <v>56.09</v>
+      </c>
+      <c r="D269">
         <v>9555.86</v>
       </c>
-      <c r="D269">
+      <c r="E269">
         <v>6713.24</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>6625.86</v>
+      </c>
+      <c r="H269">
+        <v>332.27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>13231</v>
       </c>
@@ -4179,13 +7419,25 @@
         <v>75503.210000000006</v>
       </c>
       <c r="C270">
+        <v>112.47</v>
+      </c>
+      <c r="D270">
         <v>21554.83</v>
       </c>
-      <c r="D270">
+      <c r="E270">
         <v>17080.8</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>16993.41</v>
+      </c>
+      <c r="H270">
+        <v>827.86</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>13244</v>
       </c>
@@ -4193,13 +7445,25 @@
         <v>141519.49</v>
       </c>
       <c r="C271">
+        <v>33.96</v>
+      </c>
+      <c r="D271">
         <v>37348.31</v>
       </c>
-      <c r="D271">
+      <c r="E271">
         <v>23479.84</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>23392.45</v>
+      </c>
+      <c r="H271">
+        <v>1260.32</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>13255</v>
       </c>
@@ -4207,13 +7471,25 @@
         <v>266788.33</v>
       </c>
       <c r="C272">
+        <v>62.17</v>
+      </c>
+      <c r="D272">
         <v>68003.03</v>
       </c>
-      <c r="D272">
+      <c r="E272">
         <v>42229.2</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>42141.81</v>
+      </c>
+      <c r="H272">
+        <v>2339.6799999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>13263</v>
       </c>
@@ -4221,13 +7497,25 @@
         <v>80739.09</v>
       </c>
       <c r="C273">
+        <v>44.73</v>
+      </c>
+      <c r="D273">
         <v>22527.45</v>
       </c>
-      <c r="D273">
+      <c r="E273">
         <v>14938.48</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>14851.09</v>
+      </c>
+      <c r="H273">
+        <v>754.97</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>13565</v>
       </c>
@@ -4235,13 +7523,25 @@
         <v>153.58000000000001</v>
       </c>
       <c r="C274">
+        <v>4.33</v>
+      </c>
+      <c r="D274">
         <v>291.42</v>
       </c>
-      <c r="D274">
+      <c r="E274">
         <v>40.32</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F274">
+        <v>128.32</v>
+      </c>
+      <c r="G274">
+        <v>0.05</v>
+      </c>
+      <c r="H274">
+        <v>18.239999999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>13767</v>
       </c>
@@ -4249,13 +7549,25 @@
         <v>2684.71</v>
       </c>
       <c r="C275">
+        <v>8.74</v>
+      </c>
+      <c r="D275">
         <v>1231.8499999999999</v>
       </c>
-      <c r="D275">
+      <c r="E275">
         <v>138.37</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F275">
+        <v>471.27</v>
+      </c>
+      <c r="G275">
+        <v>96.07</v>
+      </c>
+      <c r="H275">
+        <v>57.21</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>13909</v>
       </c>
@@ -4263,13 +7575,25 @@
         <v>76722.149999999994</v>
       </c>
       <c r="C276">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="D276">
         <v>21866.83</v>
       </c>
-      <c r="D276">
+      <c r="E276">
         <v>18421.73</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>18334.34</v>
+      </c>
+      <c r="H276">
+        <v>833.17</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>13987</v>
       </c>
@@ -4277,13 +7601,25 @@
         <v>19972.669999999998</v>
       </c>
       <c r="C277">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="D277">
         <v>6751.84</v>
       </c>
-      <c r="D277">
+      <c r="E277">
         <v>1319.65</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F277">
+        <v>1881.47</v>
+      </c>
+      <c r="G277">
+        <v>1129.31</v>
+      </c>
+      <c r="H277">
+        <v>345.2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>14004</v>
       </c>
@@ -4291,13 +7627,25 @@
         <v>57234.8</v>
       </c>
       <c r="C278">
+        <v>75.17</v>
+      </c>
+      <c r="D278">
         <v>16894.330000000002</v>
       </c>
-      <c r="D278">
+      <c r="E278">
         <v>12092.73</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>12005.35</v>
+      </c>
+      <c r="H278">
+        <v>596.94000000000005</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>14037</v>
       </c>
@@ -4305,13 +7653,25 @@
         <v>100286.42</v>
       </c>
       <c r="C279">
+        <v>51.18</v>
+      </c>
+      <c r="D279">
         <v>27321.06</v>
       </c>
-      <c r="D279">
+      <c r="E279">
         <v>18122.93</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>18035.55</v>
+      </c>
+      <c r="H279">
+        <v>924.55</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>14054</v>
       </c>
@@ -4319,13 +7679,25 @@
         <v>6329.02</v>
       </c>
       <c r="C280">
+        <v>22.4</v>
+      </c>
+      <c r="D280">
         <v>2771.06</v>
       </c>
-      <c r="D280">
+      <c r="E280">
         <v>296.58</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F280">
+        <v>1101.6600000000001</v>
+      </c>
+      <c r="G280">
+        <v>225.88</v>
+      </c>
+      <c r="H280">
+        <v>136.05000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>14056</v>
       </c>
@@ -4333,13 +7705,25 @@
         <v>16107.7</v>
       </c>
       <c r="C281">
+        <v>18.29</v>
+      </c>
+      <c r="D281">
         <v>5632.08</v>
       </c>
-      <c r="D281">
+      <c r="E281">
         <v>1024.6600000000001</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F281">
+        <v>1647.1</v>
+      </c>
+      <c r="G281">
+        <v>868.6</v>
+      </c>
+      <c r="H281">
+        <v>305.2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>14058</v>
       </c>
@@ -4347,13 +7731,25 @@
         <v>174058.1</v>
       </c>
       <c r="C282">
+        <v>138.96</v>
+      </c>
+      <c r="D282">
         <v>45713</v>
       </c>
-      <c r="D282">
+      <c r="E282">
         <v>33829.61</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>33742.22</v>
+      </c>
+      <c r="H282">
+        <v>1679.33</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>14256</v>
       </c>
@@ -4361,13 +7757,25 @@
         <v>148.11000000000001</v>
       </c>
       <c r="C283">
+        <v>2.92</v>
+      </c>
+      <c r="D283">
         <v>238.76</v>
       </c>
-      <c r="D283">
+      <c r="E283">
         <v>40.53</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F283">
+        <v>86.31</v>
+      </c>
+      <c r="G283">
+        <v>0.26</v>
+      </c>
+      <c r="H283">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>14389</v>
       </c>
@@ -4375,13 +7783,25 @@
         <v>1464.03</v>
       </c>
       <c r="C284">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="D284">
         <v>1191.6199999999999</v>
       </c>
-      <c r="D284">
+      <c r="E284">
         <v>43.5</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F284">
+        <v>675.44</v>
+      </c>
+      <c r="G284">
+        <v>3.23</v>
+      </c>
+      <c r="H284">
+        <v>55.61</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>14398</v>
       </c>
@@ -4389,13 +7809,25 @@
         <v>1215.48</v>
       </c>
       <c r="C285">
+        <v>9.67</v>
+      </c>
+      <c r="D285">
         <v>1255.8499999999999</v>
       </c>
-      <c r="D285">
+      <c r="E285">
         <v>40.950000000000003</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F285">
+        <v>784.13</v>
+      </c>
+      <c r="G285">
+        <v>0.68</v>
+      </c>
+      <c r="H285">
+        <v>59.84</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>14669</v>
       </c>
@@ -4403,13 +7835,25 @@
         <v>35461.75</v>
       </c>
       <c r="C286">
+        <v>35.44</v>
+      </c>
+      <c r="D286">
         <v>11435.59</v>
       </c>
-      <c r="D286">
+      <c r="E286">
         <v>7456.64</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>7369.25</v>
+      </c>
+      <c r="H286">
+        <v>361.06</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>14692</v>
       </c>
@@ -4417,13 +7861,25 @@
         <v>59865.440000000002</v>
       </c>
       <c r="C287">
+        <v>30.56</v>
+      </c>
+      <c r="D287">
         <v>17373.189999999999</v>
       </c>
-      <c r="D287">
+      <c r="E287">
         <v>10982.88</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>10895.5</v>
+      </c>
+      <c r="H287">
+        <v>555.72</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>14697</v>
       </c>
@@ -4431,13 +7887,25 @@
         <v>192558.26</v>
       </c>
       <c r="C288">
+        <v>49.88</v>
+      </c>
+      <c r="D288">
         <v>49882.49</v>
       </c>
-      <c r="D288">
+      <c r="E288">
         <v>32170.84</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>32083.45</v>
+      </c>
+      <c r="H288">
+        <v>1715.14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>14701</v>
       </c>
@@ -4445,13 +7913,25 @@
         <v>110533.48</v>
       </c>
       <c r="C289">
+        <v>139.41</v>
+      </c>
+      <c r="D289">
         <v>30199.29</v>
       </c>
-      <c r="D289">
+      <c r="E289">
         <v>23538.720000000001</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>23451.34</v>
+      </c>
+      <c r="H289">
+        <v>1149.77</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>14705</v>
       </c>
@@ -4459,13 +7939,25 @@
         <v>161962.39000000001</v>
       </c>
       <c r="C290">
+        <v>66.31</v>
+      </c>
+      <c r="D290">
         <v>42694.04</v>
       </c>
-      <c r="D290">
+      <c r="E290">
         <v>30650.17</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>30562.79</v>
+      </c>
+      <c r="H290">
+        <v>1562.65</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>14713</v>
       </c>
@@ -4473,13 +7965,25 @@
         <v>67912.77</v>
       </c>
       <c r="C291">
+        <v>34.36</v>
+      </c>
+      <c r="D291">
         <v>19350.3</v>
       </c>
-      <c r="D291">
+      <c r="E291">
         <v>12189.02</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>12101.64</v>
+      </c>
+      <c r="H291">
+        <v>628.65</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>14714</v>
       </c>
@@ -4487,13 +7991,25 @@
         <v>44285.61</v>
       </c>
       <c r="C292">
+        <v>56.4</v>
+      </c>
+      <c r="D292">
         <v>13924.9</v>
       </c>
-      <c r="D292">
+      <c r="E292">
         <v>11023.4</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>10936.01</v>
+      </c>
+      <c r="H292">
+        <v>564.70000000000005</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>14718</v>
       </c>
@@ -4501,13 +8017,25 @@
         <v>27335.64</v>
       </c>
       <c r="C293">
+        <v>13.32</v>
+      </c>
+      <c r="D293">
         <v>9188.2900000000009</v>
       </c>
-      <c r="D293">
+      <c r="E293">
         <v>1828.91</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F293">
+        <v>2595.3200000000002</v>
+      </c>
+      <c r="G293">
+        <v>1572.72</v>
+      </c>
+      <c r="H293">
+        <v>445.65</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>14720</v>
       </c>
@@ -4515,13 +8043,25 @@
         <v>38374.67</v>
       </c>
       <c r="C294">
+        <v>36.54</v>
+      </c>
+      <c r="D294">
         <v>12154.24</v>
       </c>
-      <c r="D294">
+      <c r="E294">
         <v>7564.27</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>7476.89</v>
+      </c>
+      <c r="H294">
+        <v>390.79</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>14794</v>
       </c>
@@ -4529,13 +8069,25 @@
         <v>641.13</v>
       </c>
       <c r="C295">
+        <v>10.15</v>
+      </c>
+      <c r="D295">
         <v>649.12</v>
       </c>
-      <c r="D295">
+      <c r="E295">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F295">
+        <v>351.2</v>
+      </c>
+      <c r="G295">
+        <v>1.53</v>
+      </c>
+      <c r="H295">
+        <v>41.53</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>14933</v>
       </c>
@@ -4543,13 +8095,25 @@
         <v>6032.8</v>
       </c>
       <c r="C296">
+        <v>11.85</v>
+      </c>
+      <c r="D296">
         <v>3750.45</v>
       </c>
-      <c r="D296">
+      <c r="E296">
         <v>130.47</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F296">
+        <v>2108.5300000000002</v>
+      </c>
+      <c r="G296">
+        <v>62.28</v>
+      </c>
+      <c r="H296">
+        <v>148.66</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>14938</v>
       </c>
@@ -4557,13 +8121,25 @@
         <v>182.54</v>
       </c>
       <c r="C297">
+        <v>11.99</v>
+      </c>
+      <c r="D297">
         <v>338.17</v>
       </c>
-      <c r="D297">
+      <c r="E297">
         <v>40.36</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F297">
+        <v>162.03</v>
+      </c>
+      <c r="G297">
+        <v>0.09</v>
+      </c>
+      <c r="H297">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>14944</v>
       </c>
@@ -4571,13 +8147,25 @@
         <v>677.54</v>
       </c>
       <c r="C298">
+        <v>9.57</v>
+      </c>
+      <c r="D298">
         <v>614.19000000000005</v>
       </c>
-      <c r="D298">
+      <c r="E298">
         <v>43.07</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F298">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="G298">
+        <v>2.8</v>
+      </c>
+      <c r="H298">
+        <v>37.79</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>15400</v>
       </c>
@@ -4585,13 +8173,25 @@
         <v>63638.39</v>
       </c>
       <c r="C299">
+        <v>43.24</v>
+      </c>
+      <c r="D299">
         <v>18373.82</v>
       </c>
-      <c r="D299">
+      <c r="E299">
         <v>12837.6</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>12750.22</v>
+      </c>
+      <c r="H299">
+        <v>615.91999999999996</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>15419</v>
       </c>
@@ -4599,13 +8199,25 @@
         <v>49787.81</v>
       </c>
       <c r="C300">
+        <v>54.6</v>
+      </c>
+      <c r="D300">
         <v>14985.45</v>
       </c>
-      <c r="D300">
+      <c r="E300">
         <v>10174.27</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>10086.879999999999</v>
+      </c>
+      <c r="H300">
+        <v>497.73</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>15460</v>
       </c>
@@ -4613,13 +8225,25 @@
         <v>106185.22</v>
       </c>
       <c r="C301">
+        <v>84.35</v>
+      </c>
+      <c r="D301">
         <v>28981.86</v>
       </c>
-      <c r="D301">
+      <c r="E301">
         <v>22822.57</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>22735.19</v>
+      </c>
+      <c r="H301">
+        <v>1047.81</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>15461</v>
       </c>
@@ -4627,13 +8251,25 @@
         <v>58732.09</v>
       </c>
       <c r="C302">
+        <v>80.12</v>
+      </c>
+      <c r="D302">
         <v>17273.759999999998</v>
       </c>
-      <c r="D302">
+      <c r="E302">
         <v>12604.94</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>12517.56</v>
+      </c>
+      <c r="H302">
+        <v>613.44000000000005</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>15641</v>
       </c>
@@ -4641,13 +8277,25 @@
         <v>124719.1</v>
       </c>
       <c r="C303">
+        <v>130.33000000000001</v>
+      </c>
+      <c r="D303">
         <v>33676.9</v>
       </c>
-      <c r="D303">
+      <c r="E303">
         <v>26131.05</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>26043.66</v>
+      </c>
+      <c r="H303">
+        <v>1270.44</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>15719</v>
       </c>
@@ -4655,13 +8303,25 @@
         <v>226660.3</v>
       </c>
       <c r="C304">
+        <v>110.09</v>
+      </c>
+      <c r="D304">
         <v>58556.92</v>
       </c>
-      <c r="D304">
+      <c r="E304">
         <v>43026.01</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>42938.63</v>
+      </c>
+      <c r="H304">
+        <v>2112.08</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>15879</v>
       </c>
@@ -4669,13 +8329,25 @@
         <v>35872.550000000003</v>
       </c>
       <c r="C305">
+        <v>69.38</v>
+      </c>
+      <c r="D305">
         <v>11627.46</v>
       </c>
-      <c r="D305">
+      <c r="E305">
         <v>8349.24</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>8261.86</v>
+      </c>
+      <c r="H305">
+        <v>399.88</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>15886</v>
       </c>
@@ -4683,13 +8355,25 @@
         <v>56926.14</v>
       </c>
       <c r="C306">
+        <v>42.59</v>
+      </c>
+      <c r="D306">
         <v>16785.66</v>
       </c>
-      <c r="D306">
+      <c r="E306">
         <v>11007.17</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>10919.79</v>
+      </c>
+      <c r="H306">
+        <v>582.83000000000004</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>15897</v>
       </c>
@@ -4697,13 +8381,25 @@
         <v>49102.53</v>
       </c>
       <c r="C307">
+        <v>55.85</v>
+      </c>
+      <c r="D307">
         <v>14826.71</v>
       </c>
-      <c r="D307">
+      <c r="E307">
         <v>10201.42</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>10114.030000000001</v>
+      </c>
+      <c r="H307">
+        <v>495.55</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>15943</v>
       </c>
@@ -4711,13 +8407,25 @@
         <v>148130.04</v>
       </c>
       <c r="C308">
+        <v>95.41</v>
+      </c>
+      <c r="D308">
         <v>39241.71</v>
       </c>
-      <c r="D308">
+      <c r="E308">
         <v>29564.2</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>29476.81</v>
+      </c>
+      <c r="H308">
+        <v>1405.71</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>15948</v>
       </c>
@@ -4725,13 +8433,25 @@
         <v>112614.98</v>
       </c>
       <c r="C309">
+        <v>80.88</v>
+      </c>
+      <c r="D309">
         <v>30458.29</v>
       </c>
-      <c r="D309">
+      <c r="E309">
         <v>21774.13</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>21686.75</v>
+      </c>
+      <c r="H309">
+        <v>1072.5999999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>15966</v>
       </c>
@@ -4739,13 +8459,25 @@
         <v>565480.81000000006</v>
       </c>
       <c r="C310">
+        <v>84.38</v>
+      </c>
+      <c r="D310">
         <v>142073.38</v>
       </c>
-      <c r="D310">
+      <c r="E310">
         <v>114768.62</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>114681.23</v>
+      </c>
+      <c r="H310">
+        <v>5213.58</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>15970</v>
       </c>
@@ -4753,13 +8485,25 @@
         <v>96143.97</v>
       </c>
       <c r="C311">
+        <v>89.34</v>
+      </c>
+      <c r="D311">
         <v>26689.85</v>
       </c>
-      <c r="D311">
+      <c r="E311">
         <v>19986.93</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>19899.54</v>
+      </c>
+      <c r="H311">
+        <v>1037.21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>15979</v>
       </c>
@@ -4767,13 +8511,25 @@
         <v>124059.49</v>
       </c>
       <c r="C312">
+        <v>89.27</v>
+      </c>
+      <c r="D312">
         <v>33305.279999999999</v>
       </c>
-      <c r="D312">
+      <c r="E312">
         <v>24167.95</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>24080.57</v>
+      </c>
+      <c r="H312">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>15983</v>
       </c>
@@ -4781,13 +8537,25 @@
         <v>55117.65</v>
       </c>
       <c r="C313">
+        <v>68.83</v>
+      </c>
+      <c r="D313">
         <v>16350.14</v>
       </c>
-      <c r="D313">
+      <c r="E313">
         <v>11478.14</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>11390.75</v>
+      </c>
+      <c r="H313">
+        <v>568.23</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>16395</v>
       </c>
@@ -4795,13 +8563,25 @@
         <v>10020.1</v>
       </c>
       <c r="C314">
+        <v>58.1</v>
+      </c>
+      <c r="D314">
         <v>5245.72</v>
       </c>
-      <c r="D314">
+      <c r="E314">
         <v>3529.54</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>3442.15</v>
+      </c>
+      <c r="H314">
+        <v>162.22999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>16526</v>
       </c>
@@ -4809,13 +8589,25 @@
         <v>23135.86</v>
       </c>
       <c r="C315">
+        <v>77.78</v>
+      </c>
+      <c r="D315">
         <v>8547.09</v>
       </c>
-      <c r="D315">
+      <c r="E315">
         <v>6579.77</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>6492.39</v>
+      </c>
+      <c r="H315">
+        <v>303.72000000000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>16941</v>
       </c>
@@ -4823,13 +8615,25 @@
         <v>21757.03</v>
       </c>
       <c r="C316">
+        <v>20.63</v>
+      </c>
+      <c r="D316">
         <v>7798.86</v>
       </c>
-      <c r="D316">
+      <c r="E316">
         <v>1323.13</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F316">
+        <v>2451.46</v>
+      </c>
+      <c r="G316">
+        <v>1116.8399999999999</v>
+      </c>
+      <c r="H316">
+        <v>408.21</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>16953</v>
       </c>
@@ -4837,13 +8641,25 @@
         <v>48278.8</v>
       </c>
       <c r="C317">
+        <v>44.16</v>
+      </c>
+      <c r="D317">
         <v>14685.02</v>
       </c>
-      <c r="D317">
+      <c r="E317">
         <v>10194.15</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>10106.76</v>
+      </c>
+      <c r="H317">
+        <v>513.39</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>17163</v>
       </c>
@@ -4851,13 +8667,25 @@
         <v>11660.55</v>
       </c>
       <c r="C318">
+        <v>68.680000000000007</v>
+      </c>
+      <c r="D318">
         <v>5645.33</v>
       </c>
-      <c r="D318">
+      <c r="E318">
         <v>3926.49</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>3839.1</v>
+      </c>
+      <c r="H318">
+        <v>174.62</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>329702</v>
       </c>
@@ -4865,10 +8693,22 @@
         <v>222535.19</v>
       </c>
       <c r="C319">
+        <v>112.41</v>
+      </c>
+      <c r="D319">
         <v>57734.03</v>
       </c>
-      <c r="D319">
+      <c r="E319">
         <v>41176.18</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>41088.800000000003</v>
+      </c>
+      <c r="H319">
+        <v>2176.73</v>
       </c>
     </row>
   </sheetData>
